--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_9_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_9_29.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1850983.650728376</v>
+        <v>1865529.098063513</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5180438.59511858</v>
+        <v>5180438.595118579</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4689935.220254062</v>
+        <v>4689935.220254064</v>
       </c>
     </row>
     <row r="9">
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>204.9103882272899</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -701,13 +701,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.30770962901293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>30.95184914057959</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>161.8614425052552</v>
       </c>
     </row>
     <row r="4">
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>18.29749587628863</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6.876045741711437</v>
-      </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>50.46697834767995</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,13 +975,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>130.7549991620522</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>186.2783301735246</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>208.6957123392362</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>198.7050131246913</v>
+      </c>
+      <c r="Y8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1221,16 +1221,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>115.202579832332</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1269,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>157.5257699022974</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>144.1794770413806</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>412.1448586242818</v>
       </c>
       <c r="H11" t="n">
-        <v>307.1341749248157</v>
+        <v>111.7540776258843</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>88.73176363078355</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>209.272234719421</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>95.91732850283915</v>
       </c>
       <c r="I12" t="n">
-        <v>31.2235136374233</v>
+        <v>31.22351363742329</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5744636018854</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>113.6016919952446</v>
       </c>
       <c r="S13" t="n">
         <v>199.3305916246896</v>
@@ -1585,16 +1585,16 @@
         <v>286.2417648606778</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>102.8552295975069</v>
       </c>
       <c r="Y13" t="n">
-        <v>182.2315741242757</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>224.4777729234557</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>124.2146425221625</v>
+        <v>137.0599043609255</v>
       </c>
       <c r="T14" t="n">
-        <v>209.272234719421</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.0930225965682</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5744636018854</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>31.85014223983336</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>112.8519829023073</v>
@@ -1816,19 +1816,19 @@
         <v>199.3305916246896</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.8932039229227</v>
       </c>
       <c r="U16" t="n">
         <v>286.2417648606778</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>236.6264123205962</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1847,22 +1847,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>333.5702119060642</v>
       </c>
       <c r="E17" t="n">
-        <v>189.6020834251828</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>412.1448586242818</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>88.73176363078356</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,22 +1895,22 @@
         <v>137.0599043609255</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.272234719421</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.0930225965682</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2053,22 +2053,22 @@
         <v>199.3305916246896</v>
       </c>
       <c r="T19" t="n">
-        <v>144.6352198625789</v>
+        <v>221.8932039229227</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>8.465203205886036</v>
       </c>
     </row>
     <row r="20">
@@ -2084,13 +2084,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>254.011376545919</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>59.45806028855134</v>
       </c>
       <c r="G20" t="n">
         <v>412.1448586242818</v>
@@ -2099,7 +2099,7 @@
         <v>307.1341749248157</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>88.73176363078356</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>137.0599043609255</v>
       </c>
       <c r="T20" t="n">
         <v>209.272234719421</v>
@@ -2138,7 +2138,7 @@
         <v>251.0930225965682</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.5744636018854</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>149.6330596899057</v>
       </c>
       <c r="I22" t="n">
         <v>112.8519829023073</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>113.6016919952446</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>199.3305916246896</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>162.3263328674958</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2417648606778</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>57.0232389253042</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>138.0380097146672</v>
+        <v>138.0380097146681</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>24.78389347087563</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>149.6330596899057</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>112.8519829023073</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>113.6016919952446</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>199.3305916246896</v>
       </c>
       <c r="T25" t="n">
         <v>221.8932039229227</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2417648606778</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>176.0961865228651</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>154.6954880159224</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2573,7 +2573,7 @@
         <v>307.1341749248157</v>
       </c>
       <c r="I26" t="n">
-        <v>88.73176363078356</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>137.0599043609255</v>
       </c>
       <c r="T26" t="n">
-        <v>209.272234719421</v>
+        <v>70.76911629386515</v>
       </c>
       <c r="U26" t="n">
         <v>251.0930225965682</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2731,7 +2731,7 @@
         <v>149.6330596899057</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>112.8519829023073</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>113.6016919952446</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>199.3305916246896</v>
       </c>
       <c r="T28" t="n">
-        <v>8.017659091046644</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2417648606778</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>13.83712088883175</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2807,10 +2807,10 @@
         <v>412.1448586242818</v>
       </c>
       <c r="H29" t="n">
-        <v>79.89929286847629</v>
+        <v>307.1341749248157</v>
       </c>
       <c r="I29" t="n">
-        <v>88.73176363078356</v>
+        <v>70.76911629386511</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>137.0599043609255</v>
       </c>
       <c r="T29" t="n">
-        <v>209.272234719421</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.0930225965682</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>43.00313081083966</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.5744636018854</v>
       </c>
       <c r="H31" t="n">
-        <v>149.6330596899057</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>112.8519829023073</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>113.6016919952446</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>48.18002262670668</v>
+        <v>221.8932039229227</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2417648606778</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>155.4989596071404</v>
       </c>
       <c r="C32" t="n">
-        <v>275.0979140755936</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>137.0599043609255</v>
       </c>
       <c r="T32" t="n">
         <v>209.272234719421</v>
@@ -3196,16 +3196,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.5744636018854</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>149.6330596899057</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>112.8519829023073</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>113.6016919952446</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>199.3305916246896</v>
@@ -3241,19 +3241,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2417648606778</v>
+        <v>3.005016016010597</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>170.5171113401753</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3275,16 +3275,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>412.1448586242818</v>
       </c>
       <c r="H35" t="n">
-        <v>58.44429702451337</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>88.73176363078358</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>137.0599043609255</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.272234719421</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.0930225965682</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>26.52973304261774</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3421,16 +3421,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>45.41609030142327</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>149.6330596899057</v>
       </c>
       <c r="I37" t="n">
         <v>112.8519829023073</v>
@@ -3469,19 +3469,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>113.6016919952446</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>199.3305916246896</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.8932039229227</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>195.2727176288857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>412.1448586242818</v>
       </c>
       <c r="H38" t="n">
         <v>307.1341749248157</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>88.73176363078358</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>137.0599043609255</v>
       </c>
       <c r="T38" t="n">
         <v>209.272234719421</v>
@@ -3560,16 +3560,16 @@
         <v>251.0930225965682</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>239.8062785801036</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>127.9716792893892</v>
       </c>
     </row>
     <row r="39">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3670,13 +3670,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>38.18303906005699</v>
       </c>
       <c r="G40" t="n">
         <v>166.5744636018854</v>
       </c>
       <c r="H40" t="n">
-        <v>149.6330596899057</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>113.6016919952446</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3715,19 +3715,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2417648606778</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>200.074142319643</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,19 +3737,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>28.37778359709435</v>
       </c>
       <c r="G41" t="n">
         <v>412.1448586242818</v>
@@ -3758,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>88.73176363078358</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,16 +3794,16 @@
         <v>209.272234719421</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.0930225965682</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>306.463790140576</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>149.6330596899057</v>
       </c>
       <c r="I43" t="n">
-        <v>112.8519829023073</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>61.35064206212279</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.8932039229227</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.3146009447426</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>4.894439856483397</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>412.1448586242818</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>88.73176363078358</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,19 +4028,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>209.272234719421</v>
+        <v>86.47012686310883</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.0930225965682</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -4062,7 +4062,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -4071,7 +4071,7 @@
         <v>135.6539030000527</v>
       </c>
       <c r="H45" t="n">
-        <v>14.87232983346966</v>
+        <v>95.91732850283915</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,16 +4104,16 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>140.2993290820219</v>
       </c>
       <c r="T45" t="n">
         <v>193.3543979231454</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.8302232544513</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>82.68640887673</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -4122,7 +4122,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4144,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>90.55296180273609</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>199.3305916246896</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.8932039229227</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>59.76285556494095</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513.1241971476163</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="C2" t="n">
-        <v>513.1241971476163</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="D2" t="n">
-        <v>513.1241971476163</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="E2" t="n">
-        <v>513.1241971476163</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="F2" t="n">
-        <v>506.1786963984129</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>527.5764290961142</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U2" t="n">
-        <v>527.5764290961142</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V2" t="n">
-        <v>527.5764290961142</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W2" t="n">
-        <v>527.5764290961142</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="X2" t="n">
-        <v>527.5764290961142</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="Y2" t="n">
-        <v>513.1241971476163</v>
+        <v>241.7186438601369</v>
       </c>
     </row>
     <row r="3">
@@ -4383,10 +4383,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51.29976984439196</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="C3" t="n">
-        <v>51.29976984439196</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D3" t="n">
         <v>20.03527576299844</v>
@@ -4413,46 +4413,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>259.0600686093459</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>259.0600686093459</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W3" t="n">
-        <v>259.0600686093459</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X3" t="n">
-        <v>259.0600686093459</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="Y3" t="n">
-        <v>51.29976984439196</v>
+        <v>337.1850224443177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4504,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>72.23626279480629</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C5" t="n">
-        <v>72.23626279480629</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D5" t="n">
-        <v>53.75394372784808</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E5" t="n">
-        <v>53.75394372784808</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F5" t="n">
-        <v>46.80844297864461</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G5" t="n">
         <v>31.35113235729608</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U5" t="n">
-        <v>559.1338160830064</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V5" t="n">
-        <v>559.1338160830064</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W5" t="n">
-        <v>559.1338160830064</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X5" t="n">
-        <v>315.6850394389064</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y5" t="n">
-        <v>315.6850394389064</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>110.334904905842</v>
+        <v>557.3945247848451</v>
       </c>
       <c r="C6" t="n">
-        <v>110.334904905842</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="D6" t="n">
-        <v>110.334904905842</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="E6" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F6" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G6" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
         <v>110.334904905842</v>
@@ -4653,43 +4653,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>761.8705608694022</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U6" t="n">
-        <v>533.6469426057913</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V6" t="n">
-        <v>298.4948343740486</v>
+        <v>557.3945247848451</v>
       </c>
       <c r="W6" t="n">
-        <v>298.4948343740486</v>
+        <v>557.3945247848451</v>
       </c>
       <c r="X6" t="n">
-        <v>110.334904905842</v>
+        <v>557.3945247848451</v>
       </c>
       <c r="Y6" t="n">
-        <v>110.334904905842</v>
+        <v>557.3945247848451</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>477.1596022224361</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="C8" t="n">
-        <v>477.1596022224361</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="D8" t="n">
-        <v>477.1596022224361</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="E8" t="n">
-        <v>477.1596022224361</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="F8" t="n">
-        <v>470.2141014732327</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="G8" t="n">
-        <v>454.7567908518841</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H8" t="n">
         <v>243.9530410142718</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>720.6083788665362</v>
+        <v>753.253405673024</v>
       </c>
       <c r="Y8" t="n">
-        <v>720.6083788665362</v>
+        <v>509.8046290289238</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>428.8733789897854</v>
+        <v>511.3692755768984</v>
       </c>
       <c r="C9" t="n">
-        <v>428.8733789897854</v>
+        <v>511.3692755768984</v>
       </c>
       <c r="D9" t="n">
-        <v>279.9389693285341</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E9" t="n">
-        <v>279.9389693285341</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F9" t="n">
-        <v>133.4044113554191</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>133.4044113554191</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4884,49 +4884,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N9" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>746.5213838086411</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>746.5213838086411</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>746.5213838086411</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>511.3692755768984</v>
       </c>
       <c r="W9" t="n">
-        <v>804.9402162153863</v>
+        <v>511.3692755768984</v>
       </c>
       <c r="X9" t="n">
-        <v>597.0887160098534</v>
+        <v>511.3692755768984</v>
       </c>
       <c r="Y9" t="n">
-        <v>597.0887160098534</v>
+        <v>511.3692755768984</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
         <v>41.77557929797318</v>
@@ -4993,19 +4993,19 @@
         <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1282.139085674903</v>
+        <v>2194.514335044047</v>
       </c>
       <c r="C11" t="n">
-        <v>1282.139085674903</v>
+        <v>1825.551818103635</v>
       </c>
       <c r="D11" t="n">
-        <v>923.8733870681529</v>
+        <v>1467.286119496885</v>
       </c>
       <c r="E11" t="n">
-        <v>923.8733870681529</v>
+        <v>1081.497866898641</v>
       </c>
       <c r="F11" t="n">
-        <v>778.2375516728189</v>
+        <v>670.5119621090332</v>
       </c>
       <c r="G11" t="n">
-        <v>361.9296136684939</v>
+        <v>254.2040241047082</v>
       </c>
       <c r="H11" t="n">
-        <v>51.69307334039717</v>
+        <v>141.3211174118957</v>
       </c>
       <c r="I11" t="n">
-        <v>51.69307334039717</v>
+        <v>51.69307334039718</v>
       </c>
       <c r="J11" t="n">
         <v>305.2040901567665</v>
       </c>
       <c r="K11" t="n">
-        <v>484.992234214994</v>
+        <v>805.8961926604472</v>
       </c>
       <c r="L11" t="n">
-        <v>744.9694579236354</v>
+        <v>1085.722073516972</v>
       </c>
       <c r="M11" t="n">
-        <v>1065.877629804247</v>
+        <v>1406.630245397583</v>
       </c>
       <c r="N11" t="n">
-        <v>1396.592239783884</v>
+        <v>1737.34485537722</v>
       </c>
       <c r="O11" t="n">
         <v>2036.294022371299</v>
       </c>
       <c r="P11" t="n">
-        <v>2256.939219108368</v>
+        <v>2256.939219108369</v>
       </c>
       <c r="Q11" t="n">
-        <v>2584.653667019858</v>
+        <v>2584.653667019859</v>
       </c>
       <c r="R11" t="n">
-        <v>2584.653667019858</v>
+        <v>2584.653667019859</v>
       </c>
       <c r="S11" t="n">
-        <v>2584.653667019858</v>
+        <v>2584.653667019859</v>
       </c>
       <c r="T11" t="n">
-        <v>2373.267571343676</v>
+        <v>2584.653667019859</v>
       </c>
       <c r="U11" t="n">
-        <v>2373.267571343676</v>
+        <v>2584.653667019859</v>
       </c>
       <c r="V11" t="n">
-        <v>2042.204684000105</v>
+        <v>2584.653667019859</v>
       </c>
       <c r="W11" t="n">
-        <v>2042.204684000105</v>
+        <v>2584.653667019859</v>
       </c>
       <c r="X11" t="n">
-        <v>1668.738925739025</v>
+        <v>2584.653667019859</v>
       </c>
       <c r="Y11" t="n">
-        <v>1668.738925739025</v>
+        <v>2194.514335044047</v>
       </c>
     </row>
     <row r="12">
@@ -5094,58 +5094,58 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>946.3017627768158</v>
+        <v>946.3017627768163</v>
       </c>
       <c r="C12" t="n">
-        <v>771.8487334956889</v>
+        <v>771.8487334956893</v>
       </c>
       <c r="D12" t="n">
-        <v>622.9143238344375</v>
+        <v>622.9143238344379</v>
       </c>
       <c r="E12" t="n">
-        <v>463.6768688289819</v>
+        <v>463.6768688289824</v>
       </c>
       <c r="F12" t="n">
-        <v>317.142310855867</v>
+        <v>317.1423108558674</v>
       </c>
       <c r="G12" t="n">
-        <v>180.1181664113692</v>
+        <v>180.1181664113697</v>
       </c>
       <c r="H12" t="n">
         <v>83.2319760044611</v>
       </c>
       <c r="I12" t="n">
-        <v>51.69307334039717</v>
+        <v>51.69307334039718</v>
       </c>
       <c r="J12" t="n">
-        <v>208.9891185488937</v>
+        <v>84.15899356188901</v>
       </c>
       <c r="K12" t="n">
-        <v>604.4539566704916</v>
+        <v>479.6238316834869</v>
       </c>
       <c r="L12" t="n">
-        <v>830.4776893536107</v>
+        <v>705.6475643666059</v>
       </c>
       <c r="M12" t="n">
-        <v>1470.179471941026</v>
+        <v>1345.349346954021</v>
       </c>
       <c r="N12" t="n">
-        <v>1775.19725574385</v>
+        <v>1750.843493394375</v>
       </c>
       <c r="O12" t="n">
-        <v>2032.009142663773</v>
+        <v>2007.655380314298</v>
       </c>
       <c r="P12" t="n">
-        <v>2505.015644039154</v>
+        <v>2509.714635213686</v>
       </c>
       <c r="Q12" t="n">
-        <v>2579.954675845328</v>
+        <v>2584.653667019859</v>
       </c>
       <c r="R12" t="n">
-        <v>2584.653667019858</v>
+        <v>2584.653667019859</v>
       </c>
       <c r="S12" t="n">
-        <v>2442.937172997614</v>
+        <v>2442.937172997615</v>
       </c>
       <c r="T12" t="n">
         <v>2247.629700347973</v>
@@ -5154,7 +5154,7 @@
         <v>2019.518363727315</v>
       </c>
       <c r="V12" t="n">
-        <v>1784.366255495572</v>
+        <v>1784.366255495573</v>
       </c>
       <c r="W12" t="n">
         <v>1530.128898767371</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>220.6292562683041</v>
+        <v>219.9501072816956</v>
       </c>
       <c r="C13" t="n">
-        <v>51.69307334039717</v>
+        <v>219.9501072816956</v>
       </c>
       <c r="D13" t="n">
-        <v>51.69307334039717</v>
+        <v>219.9501072816956</v>
       </c>
       <c r="E13" t="n">
-        <v>51.69307334039717</v>
+        <v>219.9501072816956</v>
       </c>
       <c r="F13" t="n">
-        <v>51.69307334039717</v>
+        <v>219.9501072816956</v>
       </c>
       <c r="G13" t="n">
-        <v>51.69307334039717</v>
+        <v>51.69307334039718</v>
       </c>
       <c r="H13" t="n">
-        <v>51.69307334039717</v>
+        <v>51.69307334039718</v>
       </c>
       <c r="I13" t="n">
-        <v>51.69307334039717</v>
+        <v>51.69307334039718</v>
       </c>
       <c r="J13" t="n">
-        <v>58.41367237472892</v>
+        <v>58.41367237472895</v>
       </c>
       <c r="K13" t="n">
         <v>199.2945177881705</v>
       </c>
       <c r="L13" t="n">
-        <v>435.0999309428871</v>
+        <v>435.0999309428872</v>
       </c>
       <c r="M13" t="n">
-        <v>694.1127998504562</v>
+        <v>694.1127998504564</v>
       </c>
       <c r="N13" t="n">
-        <v>952.401538079484</v>
+        <v>952.4015380794842</v>
       </c>
       <c r="O13" t="n">
         <v>1174.956697563204</v>
@@ -5221,28 +5221,28 @@
         <v>1373.99771874951</v>
       </c>
       <c r="R13" t="n">
-        <v>1373.99771874951</v>
+        <v>1259.24853491593</v>
       </c>
       <c r="S13" t="n">
-        <v>1172.653686805379</v>
+        <v>1057.904502971799</v>
       </c>
       <c r="T13" t="n">
-        <v>948.5191373882853</v>
+        <v>833.7699535547051</v>
       </c>
       <c r="U13" t="n">
-        <v>659.3860415694189</v>
+        <v>544.6368577358387</v>
       </c>
       <c r="V13" t="n">
-        <v>404.7015533635321</v>
+        <v>544.6368577358387</v>
       </c>
       <c r="W13" t="n">
-        <v>404.7015533635321</v>
+        <v>544.6368577358387</v>
       </c>
       <c r="X13" t="n">
-        <v>404.7015533635321</v>
+        <v>440.7426864252257</v>
       </c>
       <c r="Y13" t="n">
-        <v>220.6292562683041</v>
+        <v>219.9501072816956</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1217.429747668661</v>
+        <v>1802.440671450619</v>
       </c>
       <c r="C14" t="n">
-        <v>848.467230728249</v>
+        <v>1433.478154510207</v>
       </c>
       <c r="D14" t="n">
-        <v>848.467230728249</v>
+        <v>1075.212455903457</v>
       </c>
       <c r="E14" t="n">
-        <v>462.6789781300047</v>
+        <v>689.4242033052126</v>
       </c>
       <c r="F14" t="n">
-        <v>51.69307334039717</v>
+        <v>278.438298515605</v>
       </c>
       <c r="G14" t="n">
-        <v>51.69307334039717</v>
+        <v>51.69307334039718</v>
       </c>
       <c r="H14" t="n">
-        <v>51.69307334039717</v>
+        <v>51.69307334039718</v>
       </c>
       <c r="I14" t="n">
-        <v>51.69307334039717</v>
+        <v>51.69307334039718</v>
       </c>
       <c r="J14" t="n">
-        <v>277.0730964788773</v>
+        <v>305.2040901567665</v>
       </c>
       <c r="K14" t="n">
-        <v>777.7651989825579</v>
+        <v>484.992234214994</v>
       </c>
       <c r="L14" t="n">
-        <v>1037.710051499921</v>
+        <v>1085.722073516972</v>
       </c>
       <c r="M14" t="n">
-        <v>1358.618223380533</v>
+        <v>1406.630245397584</v>
       </c>
       <c r="N14" t="n">
-        <v>1689.332833360169</v>
+        <v>1737.34485537722</v>
       </c>
       <c r="O14" t="n">
-        <v>1988.282000354248</v>
+        <v>2036.294022371299</v>
       </c>
       <c r="P14" t="n">
-        <v>2208.927197091318</v>
+        <v>2256.939219108369</v>
       </c>
       <c r="Q14" t="n">
-        <v>2536.641645002808</v>
+        <v>2584.653667019859</v>
       </c>
       <c r="R14" t="n">
-        <v>2584.653667019858</v>
+        <v>2584.653667019859</v>
       </c>
       <c r="S14" t="n">
-        <v>2459.184331138886</v>
+        <v>2446.20931918054</v>
       </c>
       <c r="T14" t="n">
-        <v>2247.798235462703</v>
+        <v>2446.20931918054</v>
       </c>
       <c r="U14" t="n">
-        <v>1994.168919708594</v>
+        <v>2192.580003426431</v>
       </c>
       <c r="V14" t="n">
-        <v>1994.168919708594</v>
+        <v>2192.580003426431</v>
       </c>
       <c r="W14" t="n">
-        <v>1994.168919708594</v>
+        <v>2192.580003426431</v>
       </c>
       <c r="X14" t="n">
-        <v>1994.168919708594</v>
+        <v>2192.580003426431</v>
       </c>
       <c r="Y14" t="n">
-        <v>1604.029587732782</v>
+        <v>1802.440671450619</v>
       </c>
     </row>
     <row r="15">
@@ -5331,43 +5331,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>946.3017627768157</v>
+        <v>946.3017627768163</v>
       </c>
       <c r="C15" t="n">
-        <v>771.8487334956887</v>
+        <v>771.8487334956893</v>
       </c>
       <c r="D15" t="n">
-        <v>622.9143238344375</v>
+        <v>622.9143238344379</v>
       </c>
       <c r="E15" t="n">
-        <v>463.676868828982</v>
+        <v>463.6768688289824</v>
       </c>
       <c r="F15" t="n">
-        <v>317.142310855867</v>
+        <v>317.1423108558674</v>
       </c>
       <c r="G15" t="n">
-        <v>180.1181664113694</v>
+        <v>180.1181664113697</v>
       </c>
       <c r="H15" t="n">
         <v>83.23197600446112</v>
       </c>
       <c r="I15" t="n">
-        <v>51.69307334039717</v>
+        <v>51.69307334039718</v>
       </c>
       <c r="J15" t="n">
-        <v>84.15899356188899</v>
+        <v>84.15899356188901</v>
       </c>
       <c r="K15" t="n">
-        <v>217.8032470410341</v>
+        <v>479.6238316834869</v>
       </c>
       <c r="L15" t="n">
-        <v>779.8199105613312</v>
+        <v>806.1239270041359</v>
       </c>
       <c r="M15" t="n">
-        <v>1062.935813924059</v>
+        <v>1445.825709591551</v>
       </c>
       <c r="N15" t="n">
-        <v>1367.953597726883</v>
+        <v>1750.843493394375</v>
       </c>
       <c r="O15" t="n">
         <v>2007.655380314298</v>
@@ -5391,10 +5391,10 @@
         <v>2019.518363727315</v>
       </c>
       <c r="V15" t="n">
-        <v>1784.366255495572</v>
+        <v>1784.366255495573</v>
       </c>
       <c r="W15" t="n">
-        <v>1530.12889876737</v>
+        <v>1530.128898767371</v>
       </c>
       <c r="X15" t="n">
         <v>1322.277398561838</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>366.1138700515346</v>
+        <v>165.6849752619197</v>
       </c>
       <c r="C16" t="n">
-        <v>366.1138700515346</v>
+        <v>165.6849752619197</v>
       </c>
       <c r="D16" t="n">
-        <v>366.1138700515346</v>
+        <v>165.6849752619197</v>
       </c>
       <c r="E16" t="n">
-        <v>366.1138700515346</v>
+        <v>165.6849752619197</v>
       </c>
       <c r="F16" t="n">
-        <v>366.1138700515346</v>
+        <v>165.6849752619197</v>
       </c>
       <c r="G16" t="n">
-        <v>197.8568361102362</v>
+        <v>165.6849752619197</v>
       </c>
       <c r="H16" t="n">
         <v>165.6849752619197</v>
       </c>
       <c r="I16" t="n">
-        <v>51.69307334039717</v>
+        <v>51.69307334039718</v>
       </c>
       <c r="J16" t="n">
-        <v>58.41367237472892</v>
+        <v>58.41367237472893</v>
       </c>
       <c r="K16" t="n">
         <v>199.2945177881705</v>
@@ -5464,22 +5464,22 @@
         <v>1172.653686805379</v>
       </c>
       <c r="T16" t="n">
-        <v>1172.653686805379</v>
+        <v>948.5191373882853</v>
       </c>
       <c r="U16" t="n">
-        <v>883.5205909865126</v>
+        <v>659.3860415694189</v>
       </c>
       <c r="V16" t="n">
-        <v>883.5205909865126</v>
+        <v>404.7015533635321</v>
       </c>
       <c r="W16" t="n">
-        <v>594.1034209495519</v>
+        <v>165.6849752619197</v>
       </c>
       <c r="X16" t="n">
-        <v>366.1138700515346</v>
+        <v>165.6849752619197</v>
       </c>
       <c r="Y16" t="n">
-        <v>366.1138700515346</v>
+        <v>165.6849752619197</v>
       </c>
     </row>
     <row r="17">
@@ -5489,49 +5489,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>612.1728462658421</v>
+        <v>1263.531180342556</v>
       </c>
       <c r="C17" t="n">
-        <v>243.2103293254303</v>
+        <v>894.5686634021442</v>
       </c>
       <c r="D17" t="n">
-        <v>243.2103293254303</v>
+        <v>557.6290554162208</v>
       </c>
       <c r="E17" t="n">
-        <v>51.69307334039718</v>
+        <v>557.6290554162208</v>
       </c>
       <c r="F17" t="n">
-        <v>51.69307334039718</v>
+        <v>557.6290554162208</v>
       </c>
       <c r="G17" t="n">
-        <v>51.69307334039718</v>
+        <v>141.3211174118957</v>
       </c>
       <c r="H17" t="n">
-        <v>51.69307334039718</v>
+        <v>141.3211174118957</v>
       </c>
       <c r="I17" t="n">
         <v>51.69307334039718</v>
       </c>
       <c r="J17" t="n">
-        <v>137.7984411364135</v>
+        <v>305.2040901567665</v>
       </c>
       <c r="K17" t="n">
-        <v>317.586585194641</v>
+        <v>484.992234214994</v>
       </c>
       <c r="L17" t="n">
-        <v>577.5314377120044</v>
+        <v>744.9370867323574</v>
       </c>
       <c r="M17" t="n">
-        <v>898.4396095926156</v>
+        <v>1065.845258612969</v>
       </c>
       <c r="N17" t="n">
-        <v>1538.141392180031</v>
+        <v>1396.559868592605</v>
       </c>
       <c r="O17" t="n">
-        <v>2177.843174767446</v>
+        <v>1927.905142034837</v>
       </c>
       <c r="P17" t="n">
-        <v>2398.488371504516</v>
+        <v>2467.131059861675</v>
       </c>
       <c r="Q17" t="n">
         <v>2584.653667019859</v>
@@ -5543,22 +5543,22 @@
         <v>2446.20931918054</v>
       </c>
       <c r="T17" t="n">
-        <v>2446.20931918054</v>
+        <v>2234.823223504357</v>
       </c>
       <c r="U17" t="n">
-        <v>2446.20931918054</v>
+        <v>1981.193907750248</v>
       </c>
       <c r="V17" t="n">
-        <v>2115.146431836969</v>
+        <v>1650.131020406678</v>
       </c>
       <c r="W17" t="n">
-        <v>1762.377776566855</v>
+        <v>1650.131020406678</v>
       </c>
       <c r="X17" t="n">
-        <v>1388.912018305776</v>
+        <v>1650.131020406678</v>
       </c>
       <c r="Y17" t="n">
-        <v>998.7726863299638</v>
+        <v>1650.131020406678</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>946.3017627768154</v>
+        <v>946.3017627768158</v>
       </c>
       <c r="C18" t="n">
-        <v>771.8487334956884</v>
+        <v>771.8487334956889</v>
       </c>
       <c r="D18" t="n">
-        <v>622.914323834437</v>
+        <v>622.9143238344375</v>
       </c>
       <c r="E18" t="n">
-        <v>463.6768688289815</v>
+        <v>463.6768688289819</v>
       </c>
       <c r="F18" t="n">
-        <v>317.1423108558665</v>
+        <v>317.142310855867</v>
       </c>
       <c r="G18" t="n">
-        <v>180.1181664113692</v>
+        <v>180.1181664113697</v>
       </c>
       <c r="H18" t="n">
-        <v>83.23197600446132</v>
+        <v>83.23197600446112</v>
       </c>
       <c r="I18" t="n">
         <v>51.69307334039718</v>
@@ -5595,22 +5595,22 @@
         <v>84.15899356188901</v>
       </c>
       <c r="K18" t="n">
-        <v>479.6238316834869</v>
+        <v>217.8032470410341</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.779506217031</v>
+        <v>443.8269797241531</v>
       </c>
       <c r="M18" t="n">
-        <v>1445.825709591551</v>
+        <v>1083.528762311568</v>
       </c>
       <c r="N18" t="n">
-        <v>1750.843493394375</v>
+        <v>1388.546546114392</v>
       </c>
       <c r="O18" t="n">
-        <v>2007.655380314298</v>
+        <v>1799.678865455808</v>
       </c>
       <c r="P18" t="n">
-        <v>2509.714635213686</v>
+        <v>2301.738120355195</v>
       </c>
       <c r="Q18" t="n">
         <v>2584.653667019859</v>
@@ -5619,25 +5619,25 @@
         <v>2584.653667019859</v>
       </c>
       <c r="S18" t="n">
-        <v>2442.937172997614</v>
+        <v>2442.937172997615</v>
       </c>
       <c r="T18" t="n">
-        <v>2247.629700347972</v>
+        <v>2247.629700347973</v>
       </c>
       <c r="U18" t="n">
-        <v>2019.518363727314</v>
+        <v>2019.518363727315</v>
       </c>
       <c r="V18" t="n">
         <v>1784.366255495572</v>
       </c>
       <c r="W18" t="n">
-        <v>1530.12889876737</v>
+        <v>1530.128898767371</v>
       </c>
       <c r="X18" t="n">
-        <v>1322.277398561837</v>
+        <v>1322.277398561838</v>
       </c>
       <c r="Y18" t="n">
-        <v>1114.517099796883</v>
+        <v>1114.517099796884</v>
       </c>
     </row>
     <row r="19">
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>219.9501072816956</v>
+        <v>388.8862902096025</v>
       </c>
       <c r="C19" t="n">
         <v>219.9501072816956</v>
@@ -5701,22 +5701,22 @@
         <v>1057.904502971799</v>
       </c>
       <c r="T19" t="n">
-        <v>911.8083212924259</v>
+        <v>833.7699535547049</v>
       </c>
       <c r="U19" t="n">
-        <v>911.8083212924259</v>
+        <v>833.7699535547049</v>
       </c>
       <c r="V19" t="n">
-        <v>911.8083212924259</v>
+        <v>579.085465348818</v>
       </c>
       <c r="W19" t="n">
-        <v>622.3911512554654</v>
+        <v>579.085465348818</v>
       </c>
       <c r="X19" t="n">
-        <v>622.3911512554654</v>
+        <v>579.085465348818</v>
       </c>
       <c r="Y19" t="n">
-        <v>401.5985721119353</v>
+        <v>570.5347550398423</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1785.417981475299</v>
+        <v>1706.050078268223</v>
       </c>
       <c r="C20" t="n">
-        <v>1416.455464534887</v>
+        <v>1337.087561327811</v>
       </c>
       <c r="D20" t="n">
-        <v>1058.189765928137</v>
+        <v>1337.087561327811</v>
       </c>
       <c r="E20" t="n">
-        <v>801.6126179019561</v>
+        <v>951.2993087295672</v>
       </c>
       <c r="F20" t="n">
-        <v>801.6126179019561</v>
+        <v>891.2406619734547</v>
       </c>
       <c r="G20" t="n">
-        <v>385.304679897631</v>
+        <v>474.9327239691297</v>
       </c>
       <c r="H20" t="n">
-        <v>75.06813956953438</v>
+        <v>164.696183641033</v>
       </c>
       <c r="I20" t="n">
-        <v>75.06813956953438</v>
+        <v>75.06813956953441</v>
       </c>
       <c r="J20" t="n">
-        <v>328.5791563859037</v>
+        <v>328.5791563859038</v>
       </c>
       <c r="K20" t="n">
-        <v>508.3673004441312</v>
+        <v>829.2712588895843</v>
       </c>
       <c r="L20" t="n">
-        <v>1181.79675536644</v>
+        <v>1490.876265726162</v>
       </c>
       <c r="M20" t="n">
-        <v>1831.798634297507</v>
+        <v>2256.802835764678</v>
       </c>
       <c r="N20" t="n">
-        <v>2162.513244277144</v>
+        <v>2587.517445744315</v>
       </c>
       <c r="O20" t="n">
-        <v>2838.454590721341</v>
+        <v>2886.466612738393</v>
       </c>
       <c r="P20" t="n">
-        <v>3377.680508548178</v>
+        <v>3425.692530565231</v>
       </c>
       <c r="Q20" t="n">
-        <v>3705.394956459668</v>
+        <v>3753.406978476721</v>
       </c>
       <c r="R20" t="n">
-        <v>3753.406978476719</v>
+        <v>3753.406978476721</v>
       </c>
       <c r="S20" t="n">
-        <v>3753.406978476719</v>
+        <v>3614.962630637402</v>
       </c>
       <c r="T20" t="n">
-        <v>3542.020882800536</v>
+        <v>3403.576534961219</v>
       </c>
       <c r="U20" t="n">
-        <v>3288.391567046427</v>
+        <v>3149.94721920711</v>
       </c>
       <c r="V20" t="n">
-        <v>3288.391567046427</v>
+        <v>2818.884331863539</v>
       </c>
       <c r="W20" t="n">
-        <v>2935.622911776312</v>
+        <v>2466.115676593425</v>
       </c>
       <c r="X20" t="n">
-        <v>2562.157153515232</v>
+        <v>2092.649918332345</v>
       </c>
       <c r="Y20" t="n">
-        <v>2172.017821539421</v>
+        <v>2092.649918332345</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>106.6070422335983</v>
       </c>
       <c r="I21" t="n">
-        <v>75.06813956953438</v>
+        <v>75.06813956953441</v>
       </c>
       <c r="J21" t="n">
-        <v>107.5340597910262</v>
+        <v>232.364184778031</v>
       </c>
       <c r="K21" t="n">
-        <v>241.1783132701713</v>
+        <v>366.0084382571761</v>
       </c>
       <c r="L21" t="n">
-        <v>834.3339878037149</v>
+        <v>959.1641127907196</v>
       </c>
       <c r="M21" t="n">
-        <v>1117.449891166443</v>
+        <v>1464.501784646157</v>
       </c>
       <c r="N21" t="n">
-        <v>1699.573004493087</v>
+        <v>1769.519568448981</v>
       </c>
       <c r="O21" t="n">
-        <v>2346.308587496973</v>
+        <v>2026.331455368904</v>
       </c>
       <c r="P21" t="n">
-        <v>2533.089701442822</v>
+        <v>2528.390710268292</v>
       </c>
       <c r="Q21" t="n">
-        <v>2608.028733248996</v>
+        <v>2603.329742074465</v>
       </c>
       <c r="R21" t="n">
         <v>2608.028733248996</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>526.2532583602622</v>
+        <v>340.2045462283354</v>
       </c>
       <c r="C22" t="n">
-        <v>357.3170754323553</v>
+        <v>340.2045462283354</v>
       </c>
       <c r="D22" t="n">
-        <v>357.3170754323553</v>
+        <v>340.2045462283354</v>
       </c>
       <c r="E22" t="n">
-        <v>357.3170754323553</v>
+        <v>340.2045462283354</v>
       </c>
       <c r="F22" t="n">
-        <v>357.3170754323553</v>
+        <v>340.2045462283354</v>
       </c>
       <c r="G22" t="n">
-        <v>189.0600414910569</v>
+        <v>340.2045462283354</v>
       </c>
       <c r="H22" t="n">
         <v>189.0600414910569</v>
       </c>
       <c r="I22" t="n">
-        <v>75.06813956953438</v>
+        <v>75.06813956953441</v>
       </c>
       <c r="J22" t="n">
-        <v>81.78873860386614</v>
+        <v>81.78873860386616</v>
       </c>
       <c r="K22" t="n">
         <v>222.6695840173077</v>
@@ -5932,28 +5932,28 @@
         <v>1397.372784978647</v>
       </c>
       <c r="R22" t="n">
-        <v>1282.623601145067</v>
+        <v>1397.372784978647</v>
       </c>
       <c r="S22" t="n">
-        <v>1282.623601145067</v>
+        <v>1196.028753034516</v>
       </c>
       <c r="T22" t="n">
-        <v>1282.623601145067</v>
+        <v>1032.062760239066</v>
       </c>
       <c r="U22" t="n">
-        <v>993.4905053262003</v>
+        <v>1032.062760239066</v>
       </c>
       <c r="V22" t="n">
-        <v>993.4905053262003</v>
+        <v>1032.062760239066</v>
       </c>
       <c r="W22" t="n">
-        <v>993.4905053262003</v>
+        <v>742.6455902021053</v>
       </c>
       <c r="X22" t="n">
-        <v>765.5009544281829</v>
+        <v>742.6455902021053</v>
       </c>
       <c r="Y22" t="n">
-        <v>707.9017231905019</v>
+        <v>521.8530110585751</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2203.463914374824</v>
+        <v>2203.463914374825</v>
       </c>
       <c r="C23" t="n">
         <v>2064.031581329705</v>
@@ -5981,55 +5981,55 @@
         <v>492.6837873307779</v>
       </c>
       <c r="H23" t="n">
-        <v>182.4472470026812</v>
+        <v>182.4472470026813</v>
       </c>
       <c r="I23" t="n">
-        <v>92.81920293118266</v>
+        <v>92.81920293118269</v>
       </c>
       <c r="J23" t="n">
-        <v>346.330219747552</v>
+        <v>346.3302197475523</v>
       </c>
       <c r="K23" t="n">
-        <v>847.0223222512326</v>
+        <v>847.0223222512328</v>
       </c>
       <c r="L23" t="n">
         <v>1520.451777173542</v>
       </c>
       <c r="M23" t="n">
-        <v>2286.378347212057</v>
+        <v>2286.378347212058</v>
       </c>
       <c r="N23" t="n">
-        <v>3050.066412359558</v>
+        <v>3050.066412359559</v>
       </c>
       <c r="O23" t="n">
-        <v>3726.007758803755</v>
+        <v>3726.007758803756</v>
       </c>
       <c r="P23" t="n">
         <v>4265.233676630593</v>
       </c>
       <c r="Q23" t="n">
-        <v>4592.948124542083</v>
+        <v>4592.948124542084</v>
       </c>
       <c r="R23" t="n">
-        <v>4640.960146559133</v>
+        <v>4640.960146559134</v>
       </c>
       <c r="S23" t="n">
-        <v>4502.515798719814</v>
+        <v>4502.515798719815</v>
       </c>
       <c r="T23" t="n">
-        <v>4291.129703043632</v>
+        <v>4291.129703043633</v>
       </c>
       <c r="U23" t="n">
-        <v>4037.500387289522</v>
+        <v>4037.500387289523</v>
       </c>
       <c r="V23" t="n">
-        <v>3706.437499945951</v>
+        <v>3706.437499945952</v>
       </c>
       <c r="W23" t="n">
-        <v>3353.668844675837</v>
+        <v>3353.668844675838</v>
       </c>
       <c r="X23" t="n">
-        <v>2980.203086414757</v>
+        <v>2980.203086414758</v>
       </c>
       <c r="Y23" t="n">
         <v>2590.063754438946</v>
@@ -6054,31 +6054,31 @@
         <v>504.8029984197675</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2684404466524</v>
+        <v>358.2684404466525</v>
       </c>
       <c r="G24" t="n">
-        <v>221.2442960021548</v>
+        <v>221.2442960021549</v>
       </c>
       <c r="H24" t="n">
         <v>124.3581055952466</v>
       </c>
       <c r="I24" t="n">
-        <v>92.81920293118266</v>
+        <v>92.81920293118269</v>
       </c>
       <c r="J24" t="n">
         <v>125.2851231526745</v>
       </c>
       <c r="K24" t="n">
-        <v>442.1186348935649</v>
+        <v>258.9293766318196</v>
       </c>
       <c r="L24" t="n">
-        <v>668.1423675766839</v>
+        <v>852.0850511653632</v>
       </c>
       <c r="M24" t="n">
-        <v>1412.306284051912</v>
+        <v>1596.248967640591</v>
       </c>
       <c r="N24" t="n">
-        <v>1717.324067854736</v>
+        <v>1901.266751443415</v>
       </c>
       <c r="O24" t="n">
         <v>2364.059650858621</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3644.950881128803</v>
+        <v>522.6372352785224</v>
       </c>
       <c r="C25" t="n">
-        <v>3644.950881128803</v>
+        <v>353.7010523506156</v>
       </c>
       <c r="D25" t="n">
-        <v>3494.834241716467</v>
+        <v>353.7010523506156</v>
       </c>
       <c r="E25" t="n">
-        <v>3494.834241716467</v>
+        <v>353.7010523506156</v>
       </c>
       <c r="F25" t="n">
-        <v>3494.834241716467</v>
+        <v>206.8111048527052</v>
       </c>
       <c r="G25" t="n">
-        <v>3469.8000058873</v>
+        <v>206.8111048527052</v>
       </c>
       <c r="H25" t="n">
-        <v>3318.655501150021</v>
+        <v>206.8111048527052</v>
       </c>
       <c r="I25" t="n">
-        <v>3318.655501150021</v>
+        <v>92.81920293118269</v>
       </c>
       <c r="J25" t="n">
-        <v>3325.376100184353</v>
+        <v>99.53980196551444</v>
       </c>
       <c r="K25" t="n">
-        <v>3466.256945597795</v>
+        <v>240.420647378956</v>
       </c>
       <c r="L25" t="n">
-        <v>3702.062358752511</v>
+        <v>476.2260605336726</v>
       </c>
       <c r="M25" t="n">
-        <v>3961.07522766008</v>
+        <v>735.2389294412417</v>
       </c>
       <c r="N25" t="n">
-        <v>4219.363965889108</v>
+        <v>993.5276676702695</v>
       </c>
       <c r="O25" t="n">
-        <v>4441.919125372828</v>
+        <v>1216.082827153989</v>
       </c>
       <c r="P25" t="n">
-        <v>4608.832829674137</v>
+        <v>1382.996531455299</v>
       </c>
       <c r="Q25" t="n">
-        <v>4640.960146559133</v>
+        <v>1415.123848340295</v>
       </c>
       <c r="R25" t="n">
-        <v>4526.210962725553</v>
+        <v>1415.123848340295</v>
       </c>
       <c r="S25" t="n">
-        <v>4526.210962725553</v>
+        <v>1213.779816396165</v>
       </c>
       <c r="T25" t="n">
-        <v>4302.076413308459</v>
+        <v>989.6452669790708</v>
       </c>
       <c r="U25" t="n">
-        <v>4302.076413308459</v>
+        <v>700.5121711602044</v>
       </c>
       <c r="V25" t="n">
-        <v>4047.391925102573</v>
+        <v>522.6372352785224</v>
       </c>
       <c r="W25" t="n">
-        <v>4047.391925102573</v>
+        <v>522.6372352785224</v>
       </c>
       <c r="X25" t="n">
-        <v>4047.391925102573</v>
+        <v>522.6372352785224</v>
       </c>
       <c r="Y25" t="n">
-        <v>3826.599345959043</v>
+        <v>522.6372352785224</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2203.463914374825</v>
+        <v>2343.366054198618</v>
       </c>
       <c r="C26" t="n">
-        <v>1834.501397434413</v>
+        <v>1974.403537258207</v>
       </c>
       <c r="D26" t="n">
-        <v>1476.235698827662</v>
+        <v>1616.137838651456</v>
       </c>
       <c r="E26" t="n">
-        <v>1319.97763012471</v>
+        <v>1230.349586053212</v>
       </c>
       <c r="F26" t="n">
-        <v>908.991725335103</v>
+        <v>819.3636812636043</v>
       </c>
       <c r="G26" t="n">
-        <v>492.6837873307779</v>
+        <v>403.0557432592794</v>
       </c>
       <c r="H26" t="n">
-        <v>182.4472470026813</v>
+        <v>92.81920293118269</v>
       </c>
       <c r="I26" t="n">
         <v>92.81920293118269</v>
@@ -6227,19 +6227,19 @@
         <v>346.3302197475523</v>
       </c>
       <c r="K26" t="n">
-        <v>847.0223222512328</v>
+        <v>847.0223222512323</v>
       </c>
       <c r="L26" t="n">
         <v>1520.451777173542</v>
       </c>
       <c r="M26" t="n">
-        <v>2286.378347212058</v>
+        <v>2286.378347212057</v>
       </c>
       <c r="N26" t="n">
-        <v>3050.066412359559</v>
+        <v>3050.066412359558</v>
       </c>
       <c r="O26" t="n">
-        <v>3726.007758803756</v>
+        <v>3726.007758803755</v>
       </c>
       <c r="P26" t="n">
         <v>4265.233676630593</v>
@@ -6254,22 +6254,22 @@
         <v>4502.515798719815</v>
       </c>
       <c r="T26" t="n">
-        <v>4291.129703043633</v>
+        <v>4431.031842867426</v>
       </c>
       <c r="U26" t="n">
-        <v>4037.500387289523</v>
+        <v>4177.402527113317</v>
       </c>
       <c r="V26" t="n">
-        <v>3706.437499945952</v>
+        <v>3846.339639769746</v>
       </c>
       <c r="W26" t="n">
-        <v>3353.668844675838</v>
+        <v>3493.570984499632</v>
       </c>
       <c r="X26" t="n">
-        <v>2980.203086414758</v>
+        <v>3120.105226238552</v>
       </c>
       <c r="Y26" t="n">
-        <v>2590.063754438946</v>
+        <v>2729.96589426274</v>
       </c>
     </row>
     <row r="27">
@@ -6306,22 +6306,22 @@
         <v>125.2851231526745</v>
       </c>
       <c r="K27" t="n">
-        <v>402.7037464275738</v>
+        <v>520.7499612742724</v>
       </c>
       <c r="L27" t="n">
-        <v>995.8594209611174</v>
+        <v>746.7736939573915</v>
       </c>
       <c r="M27" t="n">
-        <v>1278.975324323846</v>
+        <v>1327.681029535756</v>
       </c>
       <c r="N27" t="n">
-        <v>1583.99310812667</v>
+        <v>2107.247763938698</v>
       </c>
       <c r="O27" t="n">
-        <v>1840.804995046593</v>
+        <v>2364.059650858621</v>
       </c>
       <c r="P27" t="n">
-        <v>2342.86424994598</v>
+        <v>2550.840764804471</v>
       </c>
       <c r="Q27" t="n">
         <v>2625.779796610644</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3617.713099469694</v>
+        <v>655.9853425847125</v>
       </c>
       <c r="C28" t="n">
-        <v>3617.713099469694</v>
+        <v>655.9853425847125</v>
       </c>
       <c r="D28" t="n">
-        <v>3617.713099469694</v>
+        <v>505.8687031723767</v>
       </c>
       <c r="E28" t="n">
-        <v>3469.800005887301</v>
+        <v>357.9556095899836</v>
       </c>
       <c r="F28" t="n">
-        <v>3469.800005887301</v>
+        <v>357.9556095899836</v>
       </c>
       <c r="G28" t="n">
-        <v>3469.800005887301</v>
+        <v>357.9556095899836</v>
       </c>
       <c r="H28" t="n">
-        <v>3318.655501150022</v>
+        <v>206.8111048527052</v>
       </c>
       <c r="I28" t="n">
-        <v>3318.655501150022</v>
+        <v>92.81920293118269</v>
       </c>
       <c r="J28" t="n">
-        <v>3325.376100184354</v>
+        <v>99.53980196551444</v>
       </c>
       <c r="K28" t="n">
-        <v>3466.256945597795</v>
+        <v>240.420647378956</v>
       </c>
       <c r="L28" t="n">
-        <v>3702.062358752512</v>
+        <v>476.2260605336726</v>
       </c>
       <c r="M28" t="n">
-        <v>3961.075227660081</v>
+        <v>735.2389294412417</v>
       </c>
       <c r="N28" t="n">
-        <v>4219.363965889109</v>
+        <v>993.5276676702695</v>
       </c>
       <c r="O28" t="n">
-        <v>4441.919125372829</v>
+        <v>1216.082827153989</v>
       </c>
       <c r="P28" t="n">
-        <v>4608.832829674138</v>
+        <v>1382.996531455299</v>
       </c>
       <c r="Q28" t="n">
-        <v>4640.960146559134</v>
+        <v>1415.123848340295</v>
       </c>
       <c r="R28" t="n">
-        <v>4526.210962725554</v>
+        <v>1415.123848340295</v>
       </c>
       <c r="S28" t="n">
-        <v>4324.866930781423</v>
+        <v>1213.779816396165</v>
       </c>
       <c r="T28" t="n">
-        <v>4316.768285234912</v>
+        <v>1213.779816396165</v>
       </c>
       <c r="U28" t="n">
-        <v>4316.768285234912</v>
+        <v>924.6467205772981</v>
       </c>
       <c r="V28" t="n">
-        <v>4316.768285234912</v>
+        <v>669.9622323714112</v>
       </c>
       <c r="W28" t="n">
-        <v>4027.351115197951</v>
+        <v>655.9853425847125</v>
       </c>
       <c r="X28" t="n">
-        <v>3799.361564299934</v>
+        <v>655.9853425847125</v>
       </c>
       <c r="Y28" t="n">
-        <v>3799.361564299934</v>
+        <v>655.9853425847125</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2203.463914374825</v>
+        <v>2414.850010051007</v>
       </c>
       <c r="C29" t="n">
-        <v>1834.501397434413</v>
+        <v>2045.887493110596</v>
       </c>
       <c r="D29" t="n">
-        <v>1476.235698827662</v>
+        <v>1687.621794503845</v>
       </c>
       <c r="E29" t="n">
-        <v>1090.447446229418</v>
+        <v>1301.833541905601</v>
       </c>
       <c r="F29" t="n">
-        <v>679.4615414398106</v>
+        <v>890.8476371159934</v>
       </c>
       <c r="G29" t="n">
-        <v>263.1536034354856</v>
+        <v>474.5396991116684</v>
       </c>
       <c r="H29" t="n">
-        <v>182.4472470026813</v>
+        <v>164.3031587835717</v>
       </c>
       <c r="I29" t="n">
         <v>92.81920293118269</v>
@@ -6491,22 +6491,22 @@
         <v>4502.515798719815</v>
       </c>
       <c r="T29" t="n">
-        <v>4291.129703043633</v>
+        <v>4502.515798719815</v>
       </c>
       <c r="U29" t="n">
-        <v>4037.500387289523</v>
+        <v>4248.886482965706</v>
       </c>
       <c r="V29" t="n">
-        <v>3706.437499945952</v>
+        <v>3917.823595622135</v>
       </c>
       <c r="W29" t="n">
-        <v>3353.668844675838</v>
+        <v>3565.054940352021</v>
       </c>
       <c r="X29" t="n">
-        <v>2980.203086414758</v>
+        <v>3191.589182090941</v>
       </c>
       <c r="Y29" t="n">
-        <v>2590.063754438946</v>
+        <v>2801.449850115129</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3002.608242316091</v>
+        <v>987.4278923676012</v>
       </c>
       <c r="C30" t="n">
-        <v>2828.155213034964</v>
+        <v>812.9748630864742</v>
       </c>
       <c r="D30" t="n">
-        <v>2679.220803373713</v>
+        <v>664.0404534252229</v>
       </c>
       <c r="E30" t="n">
-        <v>2519.983348368257</v>
+        <v>504.8029984197675</v>
       </c>
       <c r="F30" t="n">
-        <v>2373.448790395142</v>
+        <v>358.2684404466525</v>
       </c>
       <c r="G30" t="n">
-        <v>2236.424645950644</v>
+        <v>221.2442960021549</v>
       </c>
       <c r="H30" t="n">
-        <v>2139.538455543736</v>
+        <v>124.3581055952466</v>
       </c>
       <c r="I30" t="n">
-        <v>2107.999552879672</v>
+        <v>92.81920293118269</v>
       </c>
       <c r="J30" t="n">
-        <v>2265.295598088169</v>
+        <v>125.2851231526745</v>
       </c>
       <c r="K30" t="n">
-        <v>2398.939851567314</v>
+        <v>258.9293766318196</v>
       </c>
       <c r="L30" t="n">
-        <v>2624.963584250433</v>
+        <v>852.0850511653632</v>
       </c>
       <c r="M30" t="n">
-        <v>2908.079487613161</v>
+        <v>1412.306284051912</v>
       </c>
       <c r="N30" t="n">
-        <v>3687.646222016103</v>
+        <v>1717.324067854736</v>
       </c>
       <c r="O30" t="n">
-        <v>3944.458108936026</v>
+        <v>2364.059650858621</v>
       </c>
       <c r="P30" t="n">
-        <v>4358.044599894471</v>
+        <v>2550.840764804471</v>
       </c>
       <c r="Q30" t="n">
-        <v>4640.960146559134</v>
+        <v>2625.779796610644</v>
       </c>
       <c r="R30" t="n">
-        <v>4640.960146559134</v>
+        <v>2625.779796610644</v>
       </c>
       <c r="S30" t="n">
-        <v>4499.243652536889</v>
+        <v>2484.0633025884</v>
       </c>
       <c r="T30" t="n">
-        <v>4303.936179887248</v>
+        <v>2288.755829938758</v>
       </c>
       <c r="U30" t="n">
-        <v>4075.82484326659</v>
+        <v>2060.6444933181</v>
       </c>
       <c r="V30" t="n">
-        <v>3840.672735034847</v>
+        <v>1825.492385086357</v>
       </c>
       <c r="W30" t="n">
-        <v>3586.435378306646</v>
+        <v>1571.255028358156</v>
       </c>
       <c r="X30" t="n">
-        <v>3378.583878101113</v>
+        <v>1363.403528152623</v>
       </c>
       <c r="Y30" t="n">
-        <v>3170.823579336159</v>
+        <v>1155.643229387669</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>560.1338351921527</v>
+        <v>715.5122315737847</v>
       </c>
       <c r="C31" t="n">
-        <v>560.1338351921527</v>
+        <v>672.0747257042497</v>
       </c>
       <c r="D31" t="n">
-        <v>560.1338351921527</v>
+        <v>521.9580862919139</v>
       </c>
       <c r="E31" t="n">
-        <v>412.2207416097596</v>
+        <v>521.9580862919139</v>
       </c>
       <c r="F31" t="n">
-        <v>412.2207416097596</v>
+        <v>375.0681387940036</v>
       </c>
       <c r="G31" t="n">
-        <v>243.9637076684612</v>
+        <v>206.8111048527052</v>
       </c>
       <c r="H31" t="n">
-        <v>92.81920293118269</v>
+        <v>206.8111048527052</v>
       </c>
       <c r="I31" t="n">
         <v>92.81920293118269</v>
@@ -6643,28 +6643,28 @@
         <v>1415.123848340295</v>
       </c>
       <c r="R31" t="n">
-        <v>1300.374664506715</v>
+        <v>1415.123848340295</v>
       </c>
       <c r="S31" t="n">
-        <v>1300.374664506715</v>
+        <v>1415.123848340295</v>
       </c>
       <c r="T31" t="n">
-        <v>1251.707974984789</v>
+        <v>1190.989298923202</v>
       </c>
       <c r="U31" t="n">
-        <v>962.5748791659225</v>
+        <v>1190.989298923202</v>
       </c>
       <c r="V31" t="n">
-        <v>962.5748791659225</v>
+        <v>936.3048107173148</v>
       </c>
       <c r="W31" t="n">
-        <v>962.5748791659225</v>
+        <v>936.3048107173148</v>
       </c>
       <c r="X31" t="n">
-        <v>962.5748791659225</v>
+        <v>936.3048107173148</v>
       </c>
       <c r="Y31" t="n">
-        <v>741.7823000223924</v>
+        <v>715.5122315737847</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2341.908262214143</v>
+        <v>2432.994098270117</v>
       </c>
       <c r="C32" t="n">
         <v>2064.031581329705</v>
@@ -6692,58 +6692,58 @@
         <v>492.6837873307779</v>
       </c>
       <c r="H32" t="n">
-        <v>182.4472470026813</v>
+        <v>182.4472470026812</v>
       </c>
       <c r="I32" t="n">
-        <v>92.81920293118269</v>
+        <v>92.81920293118266</v>
       </c>
       <c r="J32" t="n">
-        <v>346.3302197475523</v>
+        <v>346.330219747552</v>
       </c>
       <c r="K32" t="n">
-        <v>847.0223222512328</v>
+        <v>847.0223222512326</v>
       </c>
       <c r="L32" t="n">
         <v>1520.451777173542</v>
       </c>
       <c r="M32" t="n">
-        <v>2286.378347212058</v>
+        <v>2286.378347212057</v>
       </c>
       <c r="N32" t="n">
-        <v>3050.066412359559</v>
+        <v>3050.066412359558</v>
       </c>
       <c r="O32" t="n">
-        <v>3726.007758803756</v>
+        <v>3726.007758803755</v>
       </c>
       <c r="P32" t="n">
         <v>4265.233676630593</v>
       </c>
       <c r="Q32" t="n">
-        <v>4592.948124542084</v>
+        <v>4592.948124542083</v>
       </c>
       <c r="R32" t="n">
-        <v>4640.960146559134</v>
+        <v>4640.960146559133</v>
       </c>
       <c r="S32" t="n">
-        <v>4640.960146559134</v>
+        <v>4502.515798719814</v>
       </c>
       <c r="T32" t="n">
-        <v>4429.574050882951</v>
+        <v>4291.129703043632</v>
       </c>
       <c r="U32" t="n">
-        <v>4175.944735128842</v>
+        <v>4037.500387289522</v>
       </c>
       <c r="V32" t="n">
-        <v>3844.881847785271</v>
+        <v>3706.437499945951</v>
       </c>
       <c r="W32" t="n">
-        <v>3492.113192515157</v>
+        <v>3353.668844675837</v>
       </c>
       <c r="X32" t="n">
-        <v>3118.647434254077</v>
+        <v>2980.203086414757</v>
       </c>
       <c r="Y32" t="n">
-        <v>2728.508102278265</v>
+        <v>2590.063754438946</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4278923676012</v>
+        <v>3002.60824231609</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9748630864742</v>
+        <v>2828.155213034963</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0404534252229</v>
+        <v>2679.220803373712</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8029984197675</v>
+        <v>2519.983348368256</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2684404466525</v>
+        <v>2373.448790395141</v>
       </c>
       <c r="G33" t="n">
-        <v>221.2442960021549</v>
+        <v>2236.424645950643</v>
       </c>
       <c r="H33" t="n">
-        <v>124.3581055952466</v>
+        <v>2139.538455543735</v>
       </c>
       <c r="I33" t="n">
-        <v>92.81920293118269</v>
+        <v>2107.999552879671</v>
       </c>
       <c r="J33" t="n">
-        <v>125.2851231526745</v>
+        <v>2140.465473101163</v>
       </c>
       <c r="K33" t="n">
-        <v>520.7499612742724</v>
+        <v>2274.109726580308</v>
       </c>
       <c r="L33" t="n">
-        <v>1113.905635807816</v>
+        <v>2500.133459263427</v>
       </c>
       <c r="M33" t="n">
-        <v>1397.021539170544</v>
+        <v>3244.297375738654</v>
       </c>
       <c r="N33" t="n">
-        <v>1702.039322973368</v>
+        <v>3599.173458075158</v>
       </c>
       <c r="O33" t="n">
-        <v>1958.851209893292</v>
+        <v>3855.985344995082</v>
       </c>
       <c r="P33" t="n">
-        <v>2342.86424994598</v>
+        <v>4358.044599894469</v>
       </c>
       <c r="Q33" t="n">
-        <v>2625.779796610644</v>
+        <v>4640.960146559133</v>
       </c>
       <c r="R33" t="n">
-        <v>2625.779796610644</v>
+        <v>4640.960146559133</v>
       </c>
       <c r="S33" t="n">
-        <v>2484.0633025884</v>
+        <v>4499.243652536888</v>
       </c>
       <c r="T33" t="n">
-        <v>2288.755829938758</v>
+        <v>4303.936179887247</v>
       </c>
       <c r="U33" t="n">
-        <v>2060.6444933181</v>
+        <v>4075.824843266589</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.492385086357</v>
+        <v>3840.672735034846</v>
       </c>
       <c r="W33" t="n">
-        <v>1571.255028358156</v>
+        <v>3586.435378306645</v>
       </c>
       <c r="X33" t="n">
-        <v>1363.403528152623</v>
+        <v>3378.583878101112</v>
       </c>
       <c r="Y33" t="n">
-        <v>1155.643229387669</v>
+        <v>3170.823579336158</v>
       </c>
     </row>
     <row r="34">
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>409.6684794414828</v>
+        <v>989.9518675394925</v>
       </c>
       <c r="C34" t="n">
-        <v>240.7322965135758</v>
+        <v>821.0156846115856</v>
       </c>
       <c r="D34" t="n">
-        <v>240.7322965135758</v>
+        <v>821.0156846115856</v>
       </c>
       <c r="E34" t="n">
-        <v>92.81920293118269</v>
+        <v>673.1025910291925</v>
       </c>
       <c r="F34" t="n">
-        <v>92.81920293118269</v>
+        <v>526.2126435312821</v>
       </c>
       <c r="G34" t="n">
-        <v>92.81920293118269</v>
+        <v>357.9556095899836</v>
       </c>
       <c r="H34" t="n">
-        <v>92.81920293118269</v>
+        <v>206.8111048527052</v>
       </c>
       <c r="I34" t="n">
-        <v>92.81920293118269</v>
+        <v>92.81920293118266</v>
       </c>
       <c r="J34" t="n">
-        <v>99.53980196551444</v>
+        <v>99.53980196551441</v>
       </c>
       <c r="K34" t="n">
-        <v>240.420647378956</v>
+        <v>240.4206473789559</v>
       </c>
       <c r="L34" t="n">
         <v>476.2260605336726</v>
@@ -6880,28 +6880,28 @@
         <v>1415.123848340295</v>
       </c>
       <c r="R34" t="n">
-        <v>1300.374664506715</v>
+        <v>1415.123848340295</v>
       </c>
       <c r="S34" t="n">
-        <v>1099.030632562584</v>
+        <v>1213.779816396165</v>
       </c>
       <c r="T34" t="n">
-        <v>1099.030632562584</v>
+        <v>1213.779816396165</v>
       </c>
       <c r="U34" t="n">
-        <v>809.8975367437176</v>
+        <v>1210.744446683022</v>
       </c>
       <c r="V34" t="n">
-        <v>809.8975367437176</v>
+        <v>1210.744446683022</v>
       </c>
       <c r="W34" t="n">
-        <v>637.6580303395001</v>
+        <v>1210.744446683022</v>
       </c>
       <c r="X34" t="n">
-        <v>409.6684794414828</v>
+        <v>1210.744446683022</v>
       </c>
       <c r="Y34" t="n">
-        <v>409.6684794414828</v>
+        <v>989.9518675394925</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1733.072333166615</v>
+        <v>1589.73167885073</v>
       </c>
       <c r="C35" t="n">
-        <v>1364.109816226204</v>
+        <v>1220.769161910318</v>
       </c>
       <c r="D35" t="n">
-        <v>1005.844117619453</v>
+        <v>862.5034633035675</v>
       </c>
       <c r="E35" t="n">
-        <v>620.0558650212088</v>
+        <v>476.7152107053232</v>
       </c>
       <c r="F35" t="n">
-        <v>209.0699602316012</v>
+        <v>476.7152107053232</v>
       </c>
       <c r="G35" t="n">
-        <v>209.0699602316012</v>
+        <v>60.40727270099822</v>
       </c>
       <c r="H35" t="n">
-        <v>150.0353167724968</v>
+        <v>60.40727270099822</v>
       </c>
       <c r="I35" t="n">
         <v>60.40727270099822</v>
@@ -6938,19 +6938,19 @@
         <v>146.5126404970145</v>
       </c>
       <c r="K35" t="n">
-        <v>647.204743000695</v>
+        <v>326.3007845552419</v>
       </c>
       <c r="L35" t="n">
-        <v>907.1495955180583</v>
+        <v>999.7302394775511</v>
       </c>
       <c r="M35" t="n">
-        <v>1425.51482373242</v>
+        <v>1320.638411358162</v>
       </c>
       <c r="N35" t="n">
-        <v>2173.054823407273</v>
+        <v>1651.353021337799</v>
       </c>
       <c r="O35" t="n">
-        <v>2472.003990401351</v>
+        <v>2153.423269311583</v>
       </c>
       <c r="P35" t="n">
         <v>2692.649187138421</v>
@@ -6962,25 +6962,25 @@
         <v>3020.363635049911</v>
       </c>
       <c r="S35" t="n">
-        <v>2881.919287210592</v>
+        <v>3020.363635049911</v>
       </c>
       <c r="T35" t="n">
-        <v>2670.53319153441</v>
+        <v>3020.363635049911</v>
       </c>
       <c r="U35" t="n">
-        <v>2416.9038757803</v>
+        <v>2766.734319295801</v>
       </c>
       <c r="V35" t="n">
-        <v>2085.840988436729</v>
+        <v>2739.936609151743</v>
       </c>
       <c r="W35" t="n">
-        <v>1733.072333166615</v>
+        <v>2739.936609151743</v>
       </c>
       <c r="X35" t="n">
-        <v>1733.072333166615</v>
+        <v>2366.470850890663</v>
       </c>
       <c r="Y35" t="n">
-        <v>1733.072333166615</v>
+        <v>1976.331518914851</v>
       </c>
     </row>
     <row r="36">
@@ -7020,16 +7020,16 @@
         <v>226.517446401635</v>
       </c>
       <c r="L36" t="n">
-        <v>452.541179084754</v>
+        <v>819.6731209351785</v>
       </c>
       <c r="M36" t="n">
-        <v>1064.61621286819</v>
+        <v>1379.894353821728</v>
       </c>
       <c r="N36" t="n">
-        <v>1369.633996671014</v>
+        <v>1684.912137624552</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.369579674899</v>
+        <v>2331.647720628437</v>
       </c>
       <c r="P36" t="n">
         <v>2518.428834574287</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>641.3650905451565</v>
+        <v>371.4185180481055</v>
       </c>
       <c r="C37" t="n">
-        <v>472.4289076172496</v>
+        <v>371.4185180481055</v>
       </c>
       <c r="D37" t="n">
-        <v>322.3122682049138</v>
+        <v>325.5436793597992</v>
       </c>
       <c r="E37" t="n">
-        <v>174.3991746225207</v>
+        <v>325.5436793597992</v>
       </c>
       <c r="F37" t="n">
-        <v>174.3991746225207</v>
+        <v>325.5436793597992</v>
       </c>
       <c r="G37" t="n">
-        <v>174.3991746225207</v>
+        <v>325.5436793597992</v>
       </c>
       <c r="H37" t="n">
         <v>174.3991746225207</v>
@@ -7117,28 +7117,28 @@
         <v>1382.711918110111</v>
       </c>
       <c r="R37" t="n">
-        <v>1382.711918110111</v>
+        <v>1267.96273427653</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.711918110111</v>
+        <v>1066.6187023324</v>
       </c>
       <c r="T37" t="n">
-        <v>1382.711918110111</v>
+        <v>842.4841529153059</v>
       </c>
       <c r="U37" t="n">
-        <v>1382.711918110111</v>
+        <v>842.4841529153059</v>
       </c>
       <c r="V37" t="n">
-        <v>1128.027429904224</v>
+        <v>842.4841529153059</v>
       </c>
       <c r="W37" t="n">
-        <v>838.6102598672633</v>
+        <v>553.0669828783452</v>
       </c>
       <c r="X37" t="n">
-        <v>838.6102598672633</v>
+        <v>553.0669828783452</v>
       </c>
       <c r="Y37" t="n">
-        <v>641.3650905451565</v>
+        <v>553.0669828783452</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1536.380487357358</v>
+        <v>1603.808010652081</v>
       </c>
       <c r="C38" t="n">
-        <v>1167.417970416947</v>
+        <v>1234.845493711669</v>
       </c>
       <c r="D38" t="n">
-        <v>1167.417970416947</v>
+        <v>876.5797951049185</v>
       </c>
       <c r="E38" t="n">
-        <v>781.6297178187024</v>
+        <v>876.5797951049185</v>
       </c>
       <c r="F38" t="n">
-        <v>370.6438130290949</v>
+        <v>876.5797951049185</v>
       </c>
       <c r="G38" t="n">
-        <v>370.6438130290949</v>
+        <v>460.2718571005935</v>
       </c>
       <c r="H38" t="n">
-        <v>60.40727270099822</v>
+        <v>150.0353167724968</v>
       </c>
       <c r="I38" t="n">
         <v>60.40727270099822</v>
@@ -7181,16 +7181,16 @@
         <v>999.7302394775511</v>
       </c>
       <c r="M38" t="n">
-        <v>1320.638411358162</v>
+        <v>1635.706664485725</v>
       </c>
       <c r="N38" t="n">
-        <v>1651.353021337799</v>
+        <v>2383.246664160578</v>
       </c>
       <c r="O38" t="n">
-        <v>2327.294367781995</v>
+        <v>2682.195831154657</v>
       </c>
       <c r="P38" t="n">
-        <v>2692.649187138421</v>
+        <v>2902.841027891727</v>
       </c>
       <c r="Q38" t="n">
         <v>3020.363635049911</v>
@@ -7199,25 +7199,25 @@
         <v>3020.363635049911</v>
       </c>
       <c r="S38" t="n">
-        <v>3020.363635049911</v>
+        <v>2881.919287210592</v>
       </c>
       <c r="T38" t="n">
-        <v>2808.977539373728</v>
+        <v>2670.53319153441</v>
       </c>
       <c r="U38" t="n">
-        <v>2555.348223619619</v>
+        <v>2416.9038757803</v>
       </c>
       <c r="V38" t="n">
-        <v>2555.348223619619</v>
+        <v>2085.840988436729</v>
       </c>
       <c r="W38" t="n">
-        <v>2555.348223619619</v>
+        <v>1733.072333166615</v>
       </c>
       <c r="X38" t="n">
-        <v>2313.119659397292</v>
+        <v>1733.072333166615</v>
       </c>
       <c r="Y38" t="n">
-        <v>1922.98032742148</v>
+        <v>1603.808010652081</v>
       </c>
     </row>
     <row r="39">
@@ -7257,19 +7257,19 @@
         <v>351.3475713886398</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3713040717587</v>
+        <v>781.5003095054618</v>
       </c>
       <c r="M39" t="n">
-        <v>1171.917838963237</v>
+        <v>1064.61621286819</v>
       </c>
       <c r="N39" t="n">
-        <v>1476.935622766061</v>
+        <v>1369.633996671014</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.671205769946</v>
+        <v>2016.369579674899</v>
       </c>
       <c r="P39" t="n">
-        <v>2310.452319715796</v>
+        <v>2518.428834574287</v>
       </c>
       <c r="Q39" t="n">
         <v>2593.36786638046</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>548.744994307482</v>
+        <v>436.1692158934934</v>
       </c>
       <c r="C40" t="n">
-        <v>379.8088113795751</v>
+        <v>267.2330329655865</v>
       </c>
       <c r="D40" t="n">
-        <v>379.8088113795751</v>
+        <v>267.2330329655865</v>
       </c>
       <c r="E40" t="n">
-        <v>379.8088113795751</v>
+        <v>267.2330329655865</v>
       </c>
       <c r="F40" t="n">
-        <v>379.8088113795751</v>
+        <v>228.6643066422966</v>
       </c>
       <c r="G40" t="n">
-        <v>211.5517774382767</v>
+        <v>60.40727270099822</v>
       </c>
       <c r="H40" t="n">
         <v>60.40727270099822</v>
@@ -7354,28 +7354,28 @@
         <v>1382.711918110111</v>
       </c>
       <c r="R40" t="n">
-        <v>1267.96273427653</v>
+        <v>1382.711918110111</v>
       </c>
       <c r="S40" t="n">
-        <v>1267.96273427653</v>
+        <v>1382.711918110111</v>
       </c>
       <c r="T40" t="n">
-        <v>1267.96273427653</v>
+        <v>1382.711918110111</v>
       </c>
       <c r="U40" t="n">
-        <v>978.829638457664</v>
+        <v>1382.711918110111</v>
       </c>
       <c r="V40" t="n">
-        <v>776.7345452054993</v>
+        <v>1128.027429904224</v>
       </c>
       <c r="W40" t="n">
-        <v>776.7345452054993</v>
+        <v>838.6102598672633</v>
       </c>
       <c r="X40" t="n">
-        <v>548.744994307482</v>
+        <v>838.6102598672633</v>
       </c>
       <c r="Y40" t="n">
-        <v>548.744994307482</v>
+        <v>617.8176807237331</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1231.465980243979</v>
+        <v>1322.235898199837</v>
       </c>
       <c r="C41" t="n">
-        <v>862.5034633035675</v>
+        <v>953.2733812594252</v>
       </c>
       <c r="D41" t="n">
-        <v>862.5034633035675</v>
+        <v>595.0076826526747</v>
       </c>
       <c r="E41" t="n">
-        <v>476.7152107053232</v>
+        <v>595.0076826526747</v>
       </c>
       <c r="F41" t="n">
-        <v>476.7152107053232</v>
+        <v>566.3432547768218</v>
       </c>
       <c r="G41" t="n">
-        <v>60.40727270099816</v>
+        <v>150.0353167724968</v>
       </c>
       <c r="H41" t="n">
-        <v>60.40727270099816</v>
+        <v>150.0353167724968</v>
       </c>
       <c r="I41" t="n">
-        <v>60.40727270099816</v>
+        <v>60.4072727009982</v>
       </c>
       <c r="J41" t="n">
         <v>313.9182895173675</v>
       </c>
       <c r="K41" t="n">
-        <v>493.7064335755949</v>
+        <v>814.610392021048</v>
       </c>
       <c r="L41" t="n">
-        <v>753.6512860929583</v>
+        <v>1074.555244538411</v>
       </c>
       <c r="M41" t="n">
-        <v>1146.767312887747</v>
+        <v>1822.095244213264</v>
       </c>
       <c r="N41" t="n">
-        <v>1477.481922867384</v>
+        <v>2173.054823407272</v>
       </c>
       <c r="O41" t="n">
-        <v>2153.42326931158</v>
+        <v>2472.00399040135</v>
       </c>
       <c r="P41" t="n">
-        <v>2692.649187138418</v>
+        <v>2692.64918713842</v>
       </c>
       <c r="Q41" t="n">
-        <v>3020.363635049908</v>
+        <v>3020.36363504991</v>
       </c>
       <c r="R41" t="n">
-        <v>3020.363635049908</v>
+        <v>3020.36363504991</v>
       </c>
       <c r="S41" t="n">
-        <v>2881.91928721059</v>
+        <v>2881.919287210591</v>
       </c>
       <c r="T41" t="n">
-        <v>2670.533191534407</v>
+        <v>2670.533191534409</v>
       </c>
       <c r="U41" t="n">
-        <v>2670.533191534407</v>
+        <v>2416.903875780299</v>
       </c>
       <c r="V41" t="n">
-        <v>2670.533191534407</v>
+        <v>2085.840988436728</v>
       </c>
       <c r="W41" t="n">
-        <v>2317.764536264292</v>
+        <v>2085.840988436728</v>
       </c>
       <c r="X41" t="n">
-        <v>2008.205152283913</v>
+        <v>1712.375230175649</v>
       </c>
       <c r="Y41" t="n">
-        <v>1618.065820308101</v>
+        <v>1322.235898199837</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>188.8323657719704</v>
       </c>
       <c r="H42" t="n">
-        <v>91.94617536506212</v>
+        <v>91.94617536506215</v>
       </c>
       <c r="I42" t="n">
-        <v>60.40727270099816</v>
+        <v>60.4072727009982</v>
       </c>
       <c r="J42" t="n">
-        <v>217.7033179094947</v>
+        <v>92.87319292249001</v>
       </c>
       <c r="K42" t="n">
-        <v>498.9237847509252</v>
+        <v>226.517446401635</v>
       </c>
       <c r="L42" t="n">
-        <v>1092.079459284469</v>
+        <v>819.6731209351785</v>
       </c>
       <c r="M42" t="n">
-        <v>1375.195362647197</v>
+        <v>1171.917838963237</v>
       </c>
       <c r="N42" t="n">
-        <v>1680.213146450021</v>
+        <v>1476.935622766061</v>
       </c>
       <c r="O42" t="n">
-        <v>2326.948729453906</v>
+        <v>2123.671205769946</v>
       </c>
       <c r="P42" t="n">
-        <v>2513.729843399756</v>
+        <v>2310.452319715796</v>
       </c>
       <c r="Q42" t="n">
-        <v>2588.668875205929</v>
+        <v>2593.36786638046</v>
       </c>
       <c r="R42" t="n">
         <v>2593.36786638046</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1962.167530974654</v>
+        <v>2463.059357798622</v>
       </c>
       <c r="C43" t="n">
-        <v>1962.167530974654</v>
+        <v>2294.123174870716</v>
       </c>
       <c r="D43" t="n">
-        <v>1812.050891562319</v>
+        <v>2144.00653545838</v>
       </c>
       <c r="E43" t="n">
-        <v>1812.050891562319</v>
+        <v>1996.093441875987</v>
       </c>
       <c r="F43" t="n">
-        <v>1812.050891562319</v>
+        <v>1849.203494378077</v>
       </c>
       <c r="G43" t="n">
-        <v>1812.050891562319</v>
+        <v>1849.203494378077</v>
       </c>
       <c r="H43" t="n">
-        <v>1812.050891562319</v>
+        <v>1698.058989640798</v>
       </c>
       <c r="I43" t="n">
-        <v>1698.058989640796</v>
+        <v>1698.058989640798</v>
       </c>
       <c r="J43" t="n">
-        <v>1704.779588675128</v>
+        <v>1704.77958867513</v>
       </c>
       <c r="K43" t="n">
-        <v>1845.660434088569</v>
+        <v>1845.660434088571</v>
       </c>
       <c r="L43" t="n">
-        <v>2081.465847243286</v>
+        <v>2081.465847243288</v>
       </c>
       <c r="M43" t="n">
-        <v>2340.478716150855</v>
+        <v>2340.478716150857</v>
       </c>
       <c r="N43" t="n">
-        <v>2598.767454379883</v>
+        <v>2598.767454379885</v>
       </c>
       <c r="O43" t="n">
-        <v>2821.322613863603</v>
+        <v>2821.322613863605</v>
       </c>
       <c r="P43" t="n">
-        <v>2988.236318164913</v>
+        <v>2988.236318164914</v>
       </c>
       <c r="Q43" t="n">
-        <v>3020.363635049908</v>
+        <v>3020.36363504991</v>
       </c>
       <c r="R43" t="n">
-        <v>3020.363635049908</v>
+        <v>3020.36363504991</v>
       </c>
       <c r="S43" t="n">
-        <v>2958.393289532612</v>
+        <v>3020.36363504991</v>
       </c>
       <c r="T43" t="n">
-        <v>2734.258740115519</v>
+        <v>3020.36363504991</v>
       </c>
       <c r="U43" t="n">
-        <v>2734.258740115519</v>
+        <v>3020.36363504991</v>
       </c>
       <c r="V43" t="n">
-        <v>2479.574251909632</v>
+        <v>3020.36363504991</v>
       </c>
       <c r="W43" t="n">
-        <v>2190.157081872671</v>
+        <v>2865.500401772392</v>
       </c>
       <c r="X43" t="n">
-        <v>1962.167530974654</v>
+        <v>2865.500401772392</v>
       </c>
       <c r="Y43" t="n">
-        <v>1962.167530974654</v>
+        <v>2644.707822628862</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>900.85573258263</v>
+        <v>453.340144476186</v>
       </c>
       <c r="C44" t="n">
-        <v>895.9118539397175</v>
+        <v>453.340144476186</v>
       </c>
       <c r="D44" t="n">
-        <v>537.6461553329671</v>
+        <v>453.340144476186</v>
       </c>
       <c r="E44" t="n">
-        <v>537.6461553329671</v>
+        <v>453.340144476186</v>
       </c>
       <c r="F44" t="n">
-        <v>126.6602505433595</v>
+        <v>453.340144476186</v>
       </c>
       <c r="G44" t="n">
-        <v>126.6602505433595</v>
+        <v>37.03220647186097</v>
       </c>
       <c r="H44" t="n">
-        <v>126.6602505433595</v>
+        <v>37.03220647186097</v>
       </c>
       <c r="I44" t="n">
         <v>37.03220647186097</v>
@@ -7676,22 +7676,22 @@
         <v>1851.610323593049</v>
       </c>
       <c r="T44" t="n">
-        <v>1640.224227916866</v>
+        <v>1764.26676110506</v>
       </c>
       <c r="U44" t="n">
-        <v>1640.224227916866</v>
+        <v>1510.637445350951</v>
       </c>
       <c r="V44" t="n">
-        <v>1640.224227916866</v>
+        <v>1179.57455800738</v>
       </c>
       <c r="W44" t="n">
-        <v>1287.455572646752</v>
+        <v>826.8059027372658</v>
       </c>
       <c r="X44" t="n">
-        <v>1287.455572646752</v>
+        <v>453.340144476186</v>
       </c>
       <c r="Y44" t="n">
-        <v>1287.455572646752</v>
+        <v>453.340144476186</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>818.2383582246505</v>
+        <v>740.8645382387601</v>
       </c>
       <c r="C45" t="n">
-        <v>643.7853289435235</v>
+        <v>566.4115089576331</v>
       </c>
       <c r="D45" t="n">
-        <v>494.8509192822722</v>
+        <v>417.4770992963819</v>
       </c>
       <c r="E45" t="n">
-        <v>335.6134642768167</v>
+        <v>417.4770992963819</v>
       </c>
       <c r="F45" t="n">
-        <v>189.0789063037017</v>
+        <v>270.9425413232668</v>
       </c>
       <c r="G45" t="n">
-        <v>52.05476185920406</v>
+        <v>133.9183968787692</v>
       </c>
       <c r="H45" t="n">
         <v>37.03220647186097</v>
@@ -7725,22 +7725,22 @@
         <v>37.03220647186097</v>
       </c>
       <c r="J45" t="n">
-        <v>194.3282516803575</v>
+        <v>69.49812669335277</v>
       </c>
       <c r="K45" t="n">
-        <v>327.9725051595025</v>
+        <v>203.1423801724978</v>
       </c>
       <c r="L45" t="n">
-        <v>553.9962378426214</v>
+        <v>429.1661128556167</v>
       </c>
       <c r="M45" t="n">
-        <v>837.1121412053495</v>
+        <v>887.4396679448962</v>
       </c>
       <c r="N45" t="n">
-        <v>1142.129925008174</v>
+        <v>1192.45745174772</v>
       </c>
       <c r="O45" t="n">
-        <v>1398.941811928097</v>
+        <v>1589.890177841026</v>
       </c>
       <c r="P45" t="n">
         <v>1776.671291786875</v>
@@ -7752,25 +7752,25 @@
         <v>1851.610323593049</v>
       </c>
       <c r="S45" t="n">
-        <v>1851.610323593049</v>
+        <v>1709.893829570804</v>
       </c>
       <c r="T45" t="n">
-        <v>1656.302850943407</v>
+        <v>1514.586356921162</v>
       </c>
       <c r="U45" t="n">
-        <v>1656.302850943407</v>
+        <v>1286.475020300505</v>
       </c>
       <c r="V45" t="n">
-        <v>1656.302850943407</v>
+        <v>1202.953395172495</v>
       </c>
       <c r="W45" t="n">
-        <v>1402.065494215205</v>
+        <v>948.716038444293</v>
       </c>
       <c r="X45" t="n">
-        <v>1194.213994009672</v>
+        <v>740.8645382387601</v>
       </c>
       <c r="Y45" t="n">
-        <v>986.4536952447186</v>
+        <v>740.8645382387601</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>356.0850288121036</v>
+        <v>594.4426144945959</v>
       </c>
       <c r="C46" t="n">
-        <v>187.1488458841967</v>
+        <v>425.506431566689</v>
       </c>
       <c r="D46" t="n">
-        <v>37.03220647186097</v>
+        <v>275.3897921543532</v>
       </c>
       <c r="E46" t="n">
-        <v>37.03220647186097</v>
+        <v>275.3897921543532</v>
       </c>
       <c r="F46" t="n">
-        <v>37.03220647186097</v>
+        <v>128.4998446564429</v>
       </c>
       <c r="G46" t="n">
-        <v>37.03220647186097</v>
+        <v>128.4998446564429</v>
       </c>
       <c r="H46" t="n">
         <v>37.03220647186097</v>
@@ -7831,25 +7831,25 @@
         <v>1359.336851880974</v>
       </c>
       <c r="S46" t="n">
-        <v>1157.992819936843</v>
+        <v>1359.336851880974</v>
       </c>
       <c r="T46" t="n">
-        <v>933.8582705197491</v>
+        <v>1359.336851880974</v>
       </c>
       <c r="U46" t="n">
-        <v>933.8582705197491</v>
+        <v>1359.336851880974</v>
       </c>
       <c r="V46" t="n">
-        <v>873.4917497470815</v>
+        <v>1104.652363675087</v>
       </c>
       <c r="W46" t="n">
-        <v>584.0745797101209</v>
+        <v>815.235193638126</v>
       </c>
       <c r="X46" t="n">
-        <v>356.0850288121036</v>
+        <v>815.235193638126</v>
       </c>
       <c r="Y46" t="n">
-        <v>356.0850288121036</v>
+        <v>594.4426144945959</v>
       </c>
     </row>
   </sheetData>
@@ -8061,22 +8061,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,7 +8216,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8301,19 +8301,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>247.3552705420797</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,10 +8690,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03269817300804334</v>
+        <v>20.08184680723355</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>344.1945612053903</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>17.21942793656771</v>
+        <v>17.21942793656768</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8778,19 +8778,19 @@
         <v>360.187756792613</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>101.4912753914443</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>289.1165529591232</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>40.77521407947123</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,13 +8924,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>140.6814700428928</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>344.227259378399</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>17.21942793656771</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,19 +9006,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>339.3867988254324</v>
+        <v>101.4912753914444</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>360.1877567926131</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>386.7574703712037</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9173,16 +9173,16 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>312.1082551593719</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>344.1945612053904</v>
+        <v>234.7435418668211</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>69.33604884561504</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>17.21942793656771</v>
@@ -9243,25 +9243,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>90.83868688059835</v>
+        <v>360.1877567926131</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>155.879224668174</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>40.77521407947124</v>
@@ -9401,19 +9401,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>405.7173275951663</v>
       </c>
       <c r="M20" t="n">
-        <v>332.4178859095512</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>17.21942793656771</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9486,22 +9486,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>224.4664328209183</v>
       </c>
       <c r="N21" t="n">
-        <v>279.9043732563844</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>40.77521407947124</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,10 +9717,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>185.0396548098437</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9729,7 +9729,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>208.0616287831141</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9954,25 +9954,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>145.2266361573276</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>300.7994264804406</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>40.77521407947124</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>279.9043732563845</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>229.0963404167624</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>40.77521407947124</v>
@@ -10428,22 +10428,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>50.36191771078762</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>199.224167784686</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10586,22 +10586,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>199.4515720542931</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>421.0357471668851</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>205.1728090704099</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10668,10 +10668,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>332.2819499199068</v>
+        <v>279.904373256385</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,7 +10680,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10829,19 +10829,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>318.2507607349123</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>421.0357471668851</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>146.1713359791473</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>17.21942793656774</v>
@@ -10905,10 +10905,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>206.190914579498</v>
       </c>
       <c r="M39" t="n">
-        <v>314.5763954835862</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,10 +10917,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>40.77521407947125</v>
@@ -11060,22 +11060,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>72.93722718603811</v>
+        <v>430.9412401962036</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>20.44946385289961</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11136,16 +11136,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>149.0668821841267</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>69.82708552053583</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11157,10 +11157,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>40.77521407947125</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11382,16 +11382,16 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>176.9269209359106</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>142.0412516902854</v>
       </c>
       <c r="P45" t="n">
-        <v>192.8771372857871</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>262.6965687003308</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>195.3800972989313</v>
       </c>
       <c r="I11" t="n">
-        <v>88.73176363078356</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>137.0599043609255</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.272234719421</v>
       </c>
       <c r="U11" t="n">
         <v>251.0930225965682</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23428,7 +23428,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5744636018854</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>149.6330596899057</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>113.6016919952446</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>122.8544257915302</v>
       </c>
       <c r="Y13" t="n">
-        <v>36.35307922781911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>412.1448586242818</v>
+        <v>187.667085700826</v>
       </c>
       <c r="H14" t="n">
         <v>307.1341749248157</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>12.84526183876295</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.272234719421</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23665,10 +23665,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5744636018854</v>
       </c>
       <c r="H16" t="n">
-        <v>117.7829174500723</v>
+        <v>149.6330596899057</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23704,19 +23704,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.8932039229227</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>49.89658601599476</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23735,22 +23735,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>21.11282971461878</v>
       </c>
       <c r="E17" t="n">
-        <v>192.328286647079</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>412.1448586242818</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>307.1341749248157</v>
       </c>
       <c r="I17" t="n">
-        <v>88.73176363078356</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23783,22 +23783,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>209.272234719421</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0930225965682</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23941,22 +23941,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>77.25798406034377</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2417648606778</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>210.1194501462087</v>
       </c>
     </row>
     <row r="20">
@@ -23972,13 +23972,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>127.9189935263428</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>347.4179854531601</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>88.73176363078356</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>137.0599043609255</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24139,10 +24139,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.5744636018854</v>
       </c>
       <c r="H22" t="n">
-        <v>149.6330596899057</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>113.6016919952446</v>
       </c>
       <c r="S22" t="n">
-        <v>199.3305916246896</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.8932039229227</v>
+        <v>59.56687105542684</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2417648606778</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>161.5614144267906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24206,7 +24206,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>227.2348820563403</v>
+        <v>227.2348820563394</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>141.7905701310098</v>
+        <v>166.5744636018854</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>149.6330596899057</v>
       </c>
       <c r="I25" t="n">
-        <v>112.8519829023073</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>113.6016919952446</v>
       </c>
       <c r="S25" t="n">
-        <v>199.3305916246896</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2417648606778</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>76.04145680096289</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24449,7 +24449,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>227.2348820563394</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24461,7 +24461,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>88.73176363078356</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,7 +24494,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>138.5031184255558</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>112.8519829023073</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,25 +24646,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>113.6016919952446</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>213.875544831876</v>
+        <v>221.8932039229227</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2417648606778</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.6858774477593</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24695,10 +24695,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>227.2348820563394</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>17.96264733691845</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24731,7 +24731,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.272234719421</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>124.2436902877882</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>149.6330596899057</v>
       </c>
       <c r="I31" t="n">
-        <v>112.8519829023073</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24883,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>113.6016919952446</v>
       </c>
       <c r="S31" t="n">
         <v>199.3305916246896</v>
       </c>
       <c r="T31" t="n">
-        <v>173.713181296216</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2417648606778</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24914,10 +24914,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>227.2348820563402</v>
       </c>
       <c r="C32" t="n">
-        <v>90.17497769541399</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24965,7 +24965,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>137.0599043609255</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25084,16 +25084,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5744636018854</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>149.6330596899057</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>112.8519829023073</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>113.6016919952446</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,19 +25129,19 @@
         <v>221.8932039229227</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>283.2367488446672</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>116.0058869964157</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25163,16 +25163,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>412.1448586242818</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>248.6898779003023</v>
+        <v>307.1341749248157</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>88.73176363078358</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,25 +25202,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>137.0599043609255</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.272234719421</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>301.2225254275172</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25309,16 +25309,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>103.1993827167891</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,7 +25327,7 @@
         <v>166.5744636018854</v>
       </c>
       <c r="H37" t="n">
-        <v>149.6330596899057</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,19 +25357,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>113.6016919952446</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>199.3305916246896</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.8932039229227</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2417648606778</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>23.31193572320907</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25388,28 +25388,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>412.1448586242818</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>88.73176363078358</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,7 +25439,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>137.0599043609255</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25448,16 +25448,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>129.9248220983654</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>258.2662593666644</v>
       </c>
     </row>
     <row r="39">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25558,13 +25558,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>107.2380089628743</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>149.6330596899057</v>
       </c>
       <c r="I40" t="n">
         <v>112.8519829023073</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>113.6016919952446</v>
       </c>
       <c r="S40" t="n">
         <v>199.3305916246896</v>
@@ -25603,19 +25603,19 @@
         <v>221.8932039229227</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2417648606778</v>
       </c>
       <c r="V40" t="n">
-        <v>52.06350100418496</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25625,19 +25625,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>378.4982621446171</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>307.1341749248157</v>
       </c>
       <c r="I41" t="n">
-        <v>88.73176363078358</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25682,16 +25682,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0930225965682</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>63.26731053789302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.5744636018854</v>
       </c>
       <c r="H43" t="n">
-        <v>149.6330596899057</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>112.8519829023073</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,25 +25834,25 @@
         <v>113.6016919952446</v>
       </c>
       <c r="S43" t="n">
-        <v>137.9799495625668</v>
+        <v>199.3305916246896</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.8932039229227</v>
       </c>
       <c r="U43" t="n">
         <v>286.2417648606778</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>133.2083973918484</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,28 +25862,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>360.3784519145241</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>412.1448586242818</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>307.1341749248157</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>88.73176363078358</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,19 +25916,19 @@
         <v>137.0599043609255</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>122.8021078563122</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0930225965682</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25941,7 +25941,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -25950,7 +25950,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -25959,7 +25959,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>81.04499866936949</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>31.22351363742331</v>
@@ -25992,16 +25992,16 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>140.2993290820219</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8302232544513</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>150.1141782726953</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26010,7 +26010,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26032,13 +26032,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.5744636018854</v>
       </c>
       <c r="H46" t="n">
-        <v>149.6330596899057</v>
+        <v>59.08009788716959</v>
       </c>
       <c r="I46" t="n">
         <v>112.8519829023073</v>
@@ -26071,25 +26071,25 @@
         <v>113.6016919952446</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>199.3305916246896</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.8932039229227</v>
       </c>
       <c r="U46" t="n">
         <v>286.2417648606778</v>
       </c>
       <c r="V46" t="n">
-        <v>192.3747877588871</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>760632.2905152511</v>
+        <v>760632.2905152515</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>846625.2835057615</v>
+        <v>846625.2835057618</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>846625.2835057618</v>
+        <v>846625.283505762</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>846625.2835057615</v>
+        <v>846625.2835057618</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>689609.400439568</v>
+        <v>689609.4004395679</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>689609.4004395677</v>
+        <v>689609.4004395676</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>689609.4004395676</v>
+        <v>689609.4004395677</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>538540.281631582</v>
+        <v>538540.2816315822</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="C2" t="n">
         <v>595255.2831516053</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="E2" t="n">
         <v>437227.5012193454</v>
       </c>
       <c r="F2" t="n">
-        <v>437227.5012193454</v>
+        <v>437227.5012193457</v>
       </c>
       <c r="G2" t="n">
         <v>437227.5012193454</v>
       </c>
       <c r="H2" t="n">
-        <v>502666.2819661163</v>
+        <v>502666.2819661165</v>
       </c>
       <c r="I2" t="n">
         <v>552360.5986349174</v>
       </c>
       <c r="J2" t="n">
-        <v>552360.5986349172</v>
+        <v>552360.5986349173</v>
       </c>
       <c r="K2" t="n">
         <v>552360.5986349174</v>
       </c>
       <c r="L2" t="n">
-        <v>552360.5986349173</v>
+        <v>552360.5986349174</v>
       </c>
       <c r="M2" t="n">
         <v>461623.0077711603</v>
       </c>
       <c r="N2" t="n">
-        <v>461623.0077711599</v>
+        <v>461623.0077711603</v>
       </c>
       <c r="O2" t="n">
-        <v>461623.0077711603</v>
+        <v>461623.0077711601</v>
       </c>
       <c r="P2" t="n">
         <v>374321.9804682818</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,22 +26372,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>752059.6482222208</v>
+        <v>752059.6482222209</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.808889513961748e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>78835.04055271597</v>
+        <v>78835.04055271611</v>
       </c>
       <c r="I3" t="n">
-        <v>59004.7565024109</v>
+        <v>59004.75650241086</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910624</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>356868.6503137514</v>
+        <v>354433.2672769093</v>
       </c>
       <c r="C4" t="n">
-        <v>356868.6503137514</v>
+        <v>354433.2672769093</v>
       </c>
       <c r="D4" t="n">
-        <v>356868.6503137514</v>
+        <v>354433.2672769093</v>
       </c>
       <c r="E4" t="n">
-        <v>30707.28985903345</v>
+        <v>29761.53175965928</v>
       </c>
       <c r="F4" t="n">
-        <v>30707.28985903345</v>
+        <v>29761.53175965929</v>
       </c>
       <c r="G4" t="n">
-        <v>30707.28985903347</v>
+        <v>29761.53175965929</v>
       </c>
       <c r="H4" t="n">
-        <v>52236.45490473323</v>
+        <v>50620.60502683983</v>
       </c>
       <c r="I4" t="n">
-        <v>68585.73790155434</v>
+        <v>66461.0192357818</v>
       </c>
       <c r="J4" t="n">
-        <v>68585.73790155433</v>
+        <v>66461.01923578179</v>
       </c>
       <c r="K4" t="n">
-        <v>68585.73790155434</v>
+        <v>66461.0192357818</v>
       </c>
       <c r="L4" t="n">
-        <v>68585.73790155433</v>
+        <v>66461.0192357818</v>
       </c>
       <c r="M4" t="n">
-        <v>38733.33925869912</v>
+        <v>37537.77167041587</v>
       </c>
       <c r="N4" t="n">
-        <v>38733.33925869912</v>
+        <v>37537.77167041587</v>
       </c>
       <c r="O4" t="n">
-        <v>38733.33925869906</v>
+        <v>37537.77167041584</v>
       </c>
       <c r="P4" t="n">
-        <v>10011.5598487801</v>
+        <v>9709.952997300934</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>56411.12349407664</v>
+        <v>56411.12349407665</v>
       </c>
       <c r="F5" t="n">
         <v>56411.12349407664</v>
@@ -26485,10 +26485,10 @@
         <v>56411.12349407664</v>
       </c>
       <c r="H5" t="n">
-        <v>74176.17382822093</v>
+        <v>74176.17382822096</v>
       </c>
       <c r="I5" t="n">
-        <v>87666.98198307362</v>
+        <v>87666.98198307364</v>
       </c>
       <c r="J5" t="n">
         <v>87666.98198307364</v>
@@ -26497,7 +26497,7 @@
         <v>87666.98198307364</v>
       </c>
       <c r="L5" t="n">
-        <v>87666.98198307364</v>
+        <v>87666.98198307362</v>
       </c>
       <c r="M5" t="n">
         <v>63033.91500813344</v>
@@ -26506,7 +26506,7 @@
         <v>63033.91500813344</v>
       </c>
       <c r="O5" t="n">
-        <v>63033.91500813341</v>
+        <v>63033.91500813342</v>
       </c>
       <c r="P5" t="n">
         <v>45268.86467398914</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>109335.9325425443</v>
+        <v>111771.3155793866</v>
       </c>
       <c r="C6" t="n">
-        <v>190105.3640740922</v>
+        <v>192540.7471109343</v>
       </c>
       <c r="D6" t="n">
-        <v>190105.3640740924</v>
+        <v>192540.7471109342</v>
       </c>
       <c r="E6" t="n">
-        <v>-401950.5603559855</v>
+        <v>-401004.8022566115</v>
       </c>
       <c r="F6" t="n">
-        <v>350109.0878662353</v>
+        <v>351054.8459656098</v>
       </c>
       <c r="G6" t="n">
-        <v>350109.0878662351</v>
+        <v>351054.8459656095</v>
       </c>
       <c r="H6" t="n">
-        <v>297418.6126804461</v>
+        <v>299034.4625583396</v>
       </c>
       <c r="I6" t="n">
-        <v>337103.1222478785</v>
+        <v>339227.8409136511</v>
       </c>
       <c r="J6" t="n">
-        <v>333047.936151183</v>
+        <v>335172.6548169556</v>
       </c>
       <c r="K6" t="n">
-        <v>396107.8787502894</v>
+        <v>398232.597416062</v>
       </c>
       <c r="L6" t="n">
-        <v>396107.8787502893</v>
+        <v>398232.597416062</v>
       </c>
       <c r="M6" t="n">
-        <v>359855.7535043277</v>
+        <v>361051.3210926109</v>
       </c>
       <c r="N6" t="n">
-        <v>359855.7535043273</v>
+        <v>361051.3210926109</v>
       </c>
       <c r="O6" t="n">
-        <v>359855.7535043278</v>
+        <v>361051.3210926108</v>
       </c>
       <c r="P6" t="n">
-        <v>319041.5559455125</v>
+        <v>319343.1627969918</v>
       </c>
     </row>
   </sheetData>
@@ -26744,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>785.5223740997615</v>
+        <v>785.5223740997616</v>
       </c>
       <c r="F3" t="n">
         <v>785.5223740997615</v>
@@ -26796,19 +26796,19 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>646.1634167549646</v>
+        <v>646.1634167549647</v>
       </c>
       <c r="F4" t="n">
-        <v>646.1634167549646</v>
+        <v>646.1634167549647</v>
       </c>
       <c r="G4" t="n">
         <v>646.1634167549647</v>
       </c>
       <c r="H4" t="n">
-        <v>938.3517446191797</v>
+        <v>938.3517446191802</v>
       </c>
       <c r="I4" t="n">
-        <v>1160.240036639783</v>
+        <v>1160.240036639784</v>
       </c>
       <c r="J4" t="n">
         <v>1160.240036639784</v>
@@ -26817,7 +26817,7 @@
         <v>1160.240036639784</v>
       </c>
       <c r="L4" t="n">
-        <v>1160.240036639784</v>
+        <v>1160.240036639783</v>
       </c>
       <c r="M4" t="n">
         <v>755.0909087624777</v>
@@ -26826,7 +26826,7 @@
         <v>755.0909087624777</v>
       </c>
       <c r="O4" t="n">
-        <v>755.0909087624771</v>
+        <v>755.0909087624775</v>
       </c>
       <c r="P4" t="n">
         <v>462.9025808982622</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>785.5223740997615</v>
+        <v>785.5223740997616</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27024,13 +27024,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>6.59973918296057e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>292.188327864215</v>
+        <v>292.1883278642154</v>
       </c>
       <c r="I4" t="n">
-        <v>221.8882920206035</v>
+        <v>221.8882920206033</v>
       </c>
       <c r="J4" t="n">
         <v>241.0142888776591</v>
@@ -27270,10 +27270,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>6.59973918296057e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>292.188327864215</v>
+        <v>292.1883278642154</v>
       </c>
     </row>
   </sheetData>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>201.9656575144215</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>174.288448637476</v>
-      </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -27421,13 +27421,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>371.9302290270406</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,13 +27455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>116.4932164240592</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27503,19 +27503,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>43.82125327204912</v>
       </c>
     </row>
     <row r="4">
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>37.52545250819722</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
@@ -27576,7 +27576,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>336.3855457443943</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27658,7 +27658,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>172.6288712164514</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -27695,13 +27695,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27710,7 +27710,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27740,25 +27740,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>102.045587987373</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>19.4946550299529</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27798,7 +27798,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,7 +27813,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27828,7 +27828,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>178.1229943321122</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>130.7790897765309</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27895,7 +27895,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27910,16 +27910,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>171.0260875537777</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27941,16 +27941,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>56.4805912715058</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -27989,13 +27989,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>94.16921325862216</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28026,7 +28026,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>54.03113748306089</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -28065,7 +28065,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>178.1229943321122</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -31762,37 +31762,37 @@
         <v>268.0210235125614</v>
       </c>
       <c r="K11" t="n">
-        <v>401.694036962382</v>
+        <v>401.6940369623821</v>
       </c>
       <c r="L11" t="n">
-        <v>498.3369730683341</v>
+        <v>498.3369730683342</v>
       </c>
       <c r="M11" t="n">
-        <v>554.4959017935466</v>
+        <v>554.4959017935468</v>
       </c>
       <c r="N11" t="n">
-        <v>563.4682251921837</v>
+        <v>563.4682251921838</v>
       </c>
       <c r="O11" t="n">
-        <v>532.0670669712611</v>
+        <v>532.0670669712612</v>
       </c>
       <c r="P11" t="n">
-        <v>454.1069318533199</v>
+        <v>454.10693185332</v>
       </c>
       <c r="Q11" t="n">
-        <v>341.0153940746356</v>
+        <v>341.0153940746357</v>
       </c>
       <c r="R11" t="n">
         <v>198.3661098775644</v>
       </c>
       <c r="S11" t="n">
-        <v>71.96016522531987</v>
+        <v>71.96016522531988</v>
       </c>
       <c r="T11" t="n">
         <v>13.82361484471037</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2526303112682647</v>
+        <v>0.2526303112682648</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,10 +31832,10 @@
         <v>1.689614163157978</v>
       </c>
       <c r="H12" t="n">
-        <v>16.31811573365731</v>
+        <v>16.31811573365732</v>
       </c>
       <c r="I12" t="n">
-        <v>58.17311921399178</v>
+        <v>58.17311921399179</v>
       </c>
       <c r="J12" t="n">
         <v>159.6314854762544</v>
@@ -31850,13 +31850,13 @@
         <v>428.10969388437</v>
       </c>
       <c r="N12" t="n">
-        <v>439.4404836013373</v>
+        <v>439.4404836013374</v>
       </c>
       <c r="O12" t="n">
-        <v>402.0021908282053</v>
+        <v>402.0021908282054</v>
       </c>
       <c r="P12" t="n">
-        <v>322.6421992788247</v>
+        <v>322.6421992788248</v>
       </c>
       <c r="Q12" t="n">
         <v>215.6777658094289</v>
@@ -31865,10 +31865,10 @@
         <v>104.9042898844927</v>
       </c>
       <c r="S12" t="n">
-        <v>31.38384202181592</v>
+        <v>31.38384202181593</v>
       </c>
       <c r="T12" t="n">
-        <v>6.810330771676232</v>
+        <v>6.810330771676233</v>
       </c>
       <c r="U12" t="n">
         <v>0.1111588265235512</v>
@@ -31941,16 +31941,16 @@
         <v>118.613878489064</v>
       </c>
       <c r="R13" t="n">
-        <v>63.6916993819249</v>
+        <v>63.69169938192491</v>
       </c>
       <c r="S13" t="n">
         <v>24.68600641228266</v>
       </c>
       <c r="T13" t="n">
-        <v>6.052385505358815</v>
+        <v>6.052385505358816</v>
       </c>
       <c r="U13" t="n">
-        <v>0.07726449581309137</v>
+        <v>0.07726449581309139</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -34708,10 +34708,10 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34781,22 +34781,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35021,19 +35021,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>113.3808631277494</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,19 +35410,19 @@
         <v>256.0717341579489</v>
       </c>
       <c r="K11" t="n">
-        <v>181.6041859174015</v>
+        <v>505.7495984885663</v>
       </c>
       <c r="L11" t="n">
-        <v>262.603256271355</v>
+        <v>282.6524049055805</v>
       </c>
       <c r="M11" t="n">
-        <v>324.1496685662739</v>
+        <v>324.149668566274</v>
       </c>
       <c r="N11" t="n">
-        <v>334.0551615955928</v>
+        <v>334.0551615955929</v>
       </c>
       <c r="O11" t="n">
-        <v>646.1634167549646</v>
+        <v>301.9688555495744</v>
       </c>
       <c r="P11" t="n">
         <v>222.8739360980504</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>158.8848941499965</v>
+        <v>32.7938588095877</v>
       </c>
       <c r="K12" t="n">
         <v>399.4594324460585</v>
@@ -35495,22 +35495,22 @@
         <v>228.3068006900192</v>
       </c>
       <c r="M12" t="n">
-        <v>646.1634167549646</v>
+        <v>646.1634167549647</v>
       </c>
       <c r="N12" t="n">
-        <v>308.098771518004</v>
+        <v>409.5900469094484</v>
       </c>
       <c r="O12" t="n">
         <v>259.4059463837609</v>
       </c>
       <c r="P12" t="n">
-        <v>477.7843448236177</v>
+        <v>507.1305605044317</v>
       </c>
       <c r="Q12" t="n">
-        <v>75.69599172340736</v>
+        <v>75.69599172340739</v>
       </c>
       <c r="R12" t="n">
-        <v>4.746455731849579</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>6.788483873062376</v>
+        <v>6.78848387306239</v>
       </c>
       <c r="K13" t="n">
-        <v>142.3038842560015</v>
+        <v>142.3038842560016</v>
       </c>
       <c r="L13" t="n">
-        <v>238.1872860148653</v>
+        <v>238.1872860148654</v>
       </c>
       <c r="M13" t="n">
-        <v>261.629160512696</v>
+        <v>261.6291605126961</v>
       </c>
       <c r="N13" t="n">
-        <v>260.8977153828563</v>
+        <v>260.8977153828564</v>
       </c>
       <c r="O13" t="n">
         <v>224.803191397697</v>
@@ -35586,7 +35586,7 @@
         <v>168.5997013144545</v>
       </c>
       <c r="Q13" t="n">
-        <v>32.45183523736959</v>
+        <v>32.45183523736961</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,13 +35644,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>227.6565890287679</v>
+        <v>256.0717341579489</v>
       </c>
       <c r="K14" t="n">
-        <v>505.7495984885662</v>
+        <v>181.6041859174015</v>
       </c>
       <c r="L14" t="n">
-        <v>262.5705580983469</v>
+        <v>606.7978174767459</v>
       </c>
       <c r="M14" t="n">
         <v>324.1496685662739</v>
@@ -35668,7 +35668,7 @@
         <v>331.0246948600908</v>
       </c>
       <c r="R14" t="n">
-        <v>48.49699193641473</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,19 +35726,19 @@
         <v>32.7938588095877</v>
       </c>
       <c r="K15" t="n">
-        <v>134.9941954334799</v>
+        <v>399.4594324460585</v>
       </c>
       <c r="L15" t="n">
-        <v>567.6935995154516</v>
+        <v>329.7980760814636</v>
       </c>
       <c r="M15" t="n">
-        <v>285.9756599623516</v>
+        <v>646.1634167549647</v>
       </c>
       <c r="N15" t="n">
         <v>308.098771518004</v>
       </c>
       <c r="O15" t="n">
-        <v>646.1634167549646</v>
+        <v>259.4059463837609</v>
       </c>
       <c r="P15" t="n">
         <v>507.1305605044316</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>86.9751189858751</v>
+        <v>256.0717341579489</v>
       </c>
       <c r="K17" t="n">
         <v>181.6041859174015</v>
@@ -35893,16 +35893,16 @@
         <v>324.1496685662739</v>
       </c>
       <c r="N17" t="n">
-        <v>646.1634167549647</v>
+        <v>334.0551615955928</v>
       </c>
       <c r="O17" t="n">
-        <v>646.1634167549647</v>
+        <v>536.7123974163954</v>
       </c>
       <c r="P17" t="n">
-        <v>222.8739360980504</v>
+        <v>544.6726442695331</v>
       </c>
       <c r="Q17" t="n">
-        <v>188.0457530458011</v>
+        <v>118.7097042001861</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>32.7938588095877</v>
       </c>
       <c r="K18" t="n">
-        <v>399.4594324460585</v>
+        <v>134.9941954334799</v>
       </c>
       <c r="L18" t="n">
-        <v>599.1471459934784</v>
+        <v>228.3068006900192</v>
       </c>
       <c r="M18" t="n">
-        <v>376.81434684295</v>
+        <v>646.1634167549647</v>
       </c>
       <c r="N18" t="n">
         <v>308.098771518004</v>
       </c>
       <c r="O18" t="n">
-        <v>259.4059463837609</v>
+        <v>415.2851710519349</v>
       </c>
       <c r="P18" t="n">
         <v>507.1305605044316</v>
       </c>
       <c r="Q18" t="n">
-        <v>75.69599172340736</v>
+        <v>285.7732794592565</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,19 +36121,19 @@
         <v>256.0717341579489</v>
       </c>
       <c r="K20" t="n">
-        <v>181.6041859174015</v>
+        <v>505.7495984885662</v>
       </c>
       <c r="L20" t="n">
-        <v>680.2317726487973</v>
+        <v>668.2878856935132</v>
       </c>
       <c r="M20" t="n">
-        <v>656.5675544758251</v>
+        <v>773.6632020591064</v>
       </c>
       <c r="N20" t="n">
         <v>334.0551615955928</v>
       </c>
       <c r="O20" t="n">
-        <v>682.7690368123197</v>
+        <v>301.9688555495743</v>
       </c>
       <c r="P20" t="n">
         <v>544.6726442695331</v>
@@ -36142,7 +36142,7 @@
         <v>331.0246948600908</v>
       </c>
       <c r="R20" t="n">
-        <v>48.49699193641473</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>32.7938588095877</v>
+        <v>158.8848941499965</v>
       </c>
       <c r="K21" t="n">
         <v>134.9941954334799</v>
@@ -36206,22 +36206,22 @@
         <v>599.1471459934784</v>
       </c>
       <c r="M21" t="n">
-        <v>285.9756599623516</v>
+        <v>510.44209278327</v>
       </c>
       <c r="N21" t="n">
-        <v>588.0031447743884</v>
+        <v>308.098771518004</v>
       </c>
       <c r="O21" t="n">
-        <v>653.2682656604904</v>
+        <v>259.4059463837609</v>
       </c>
       <c r="P21" t="n">
-        <v>188.6677918644945</v>
+        <v>507.1305605044316</v>
       </c>
       <c r="Q21" t="n">
         <v>75.69599172340736</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>4.746455731849579</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36437,10 +36437,10 @@
         <v>32.7938588095877</v>
       </c>
       <c r="K24" t="n">
-        <v>320.0338502433236</v>
+        <v>134.9941954334799</v>
       </c>
       <c r="L24" t="n">
-        <v>228.3068006900192</v>
+        <v>599.1471459934784</v>
       </c>
       <c r="M24" t="n">
         <v>751.6807237123516</v>
@@ -36449,7 +36449,7 @@
         <v>308.098771518004</v>
       </c>
       <c r="O24" t="n">
-        <v>653.2682656604904</v>
+        <v>467.467575166875</v>
       </c>
       <c r="P24" t="n">
         <v>188.6677918644945</v>
@@ -36674,25 +36674,25 @@
         <v>32.7938588095877</v>
       </c>
       <c r="K27" t="n">
-        <v>280.2208315908074</v>
+        <v>399.4594324460585</v>
       </c>
       <c r="L27" t="n">
-        <v>599.1471459934784</v>
+        <v>228.3068006900192</v>
       </c>
       <c r="M27" t="n">
-        <v>285.9756599623516</v>
+        <v>586.7750864427923</v>
       </c>
       <c r="N27" t="n">
-        <v>308.098771518004</v>
+        <v>787.4411458615575</v>
       </c>
       <c r="O27" t="n">
         <v>259.4059463837609</v>
       </c>
       <c r="P27" t="n">
-        <v>507.1305605044316</v>
+        <v>188.6677918644945</v>
       </c>
       <c r="Q27" t="n">
-        <v>285.7732794592565</v>
+        <v>75.69599172340736</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>158.8848941499965</v>
+        <v>32.7938588095877</v>
       </c>
       <c r="K30" t="n">
         <v>134.9941954334799</v>
       </c>
       <c r="L30" t="n">
-        <v>228.3068006900192</v>
+        <v>599.1471459934784</v>
       </c>
       <c r="M30" t="n">
-        <v>285.9756599623516</v>
+        <v>565.8800332187361</v>
       </c>
       <c r="N30" t="n">
-        <v>787.4411458615575</v>
+        <v>308.098771518004</v>
       </c>
       <c r="O30" t="n">
-        <v>259.4059463837609</v>
+        <v>653.2682656604904</v>
       </c>
       <c r="P30" t="n">
-        <v>417.7641322812569</v>
+        <v>188.6677918644945</v>
       </c>
       <c r="Q30" t="n">
-        <v>285.7732794592565</v>
+        <v>75.69599172340736</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>32.7938588095877</v>
       </c>
       <c r="K33" t="n">
-        <v>399.4594324460585</v>
+        <v>134.9941954334799</v>
       </c>
       <c r="L33" t="n">
-        <v>599.1471459934784</v>
+        <v>228.3068006900192</v>
       </c>
       <c r="M33" t="n">
-        <v>285.9756599623516</v>
+        <v>751.6807237123516</v>
       </c>
       <c r="N33" t="n">
-        <v>308.098771518004</v>
+        <v>358.4606892287916</v>
       </c>
       <c r="O33" t="n">
         <v>259.4059463837609</v>
       </c>
       <c r="P33" t="n">
-        <v>387.8919596491805</v>
+        <v>507.1305605044316</v>
       </c>
       <c r="Q33" t="n">
         <v>285.7732794592565</v>
@@ -37306,22 +37306,22 @@
         <v>86.97511898587504</v>
       </c>
       <c r="K35" t="n">
-        <v>505.7495984885662</v>
+        <v>181.6041859174014</v>
       </c>
       <c r="L35" t="n">
-        <v>262.5705580983469</v>
+        <v>680.2317726487972</v>
       </c>
       <c r="M35" t="n">
-        <v>523.6012406205671</v>
+        <v>324.1496685662739</v>
       </c>
       <c r="N35" t="n">
-        <v>755.0909087624777</v>
+        <v>334.0551615955927</v>
       </c>
       <c r="O35" t="n">
-        <v>301.9688555495742</v>
+        <v>507.1416646199841</v>
       </c>
       <c r="P35" t="n">
-        <v>222.8739360980503</v>
+        <v>544.672644269533</v>
       </c>
       <c r="Q35" t="n">
         <v>331.0246948600908</v>
@@ -37388,10 +37388,10 @@
         <v>134.9941954334798</v>
       </c>
       <c r="L36" t="n">
-        <v>228.3068006900191</v>
+        <v>599.1471459934783</v>
       </c>
       <c r="M36" t="n">
-        <v>618.2576098822584</v>
+        <v>565.8800332187366</v>
       </c>
       <c r="N36" t="n">
         <v>308.098771518004</v>
@@ -37400,7 +37400,7 @@
         <v>653.2682656604903</v>
       </c>
       <c r="P36" t="n">
-        <v>507.1305605044316</v>
+        <v>188.6677918644944</v>
       </c>
       <c r="Q36" t="n">
         <v>75.69599172340733</v>
@@ -37549,19 +37549,19 @@
         <v>680.2317726487972</v>
       </c>
       <c r="M38" t="n">
-        <v>324.1496685662739</v>
+        <v>642.4004293011863</v>
       </c>
       <c r="N38" t="n">
-        <v>334.0551615955927</v>
+        <v>755.0909087624777</v>
       </c>
       <c r="O38" t="n">
-        <v>682.7690368123195</v>
+        <v>301.9688555495742</v>
       </c>
       <c r="P38" t="n">
-        <v>369.0452720771976</v>
+        <v>222.8739360980503</v>
       </c>
       <c r="Q38" t="n">
-        <v>331.0246948600908</v>
+        <v>118.7097042001861</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37625,10 +37625,10 @@
         <v>134.9941954334798</v>
       </c>
       <c r="L39" t="n">
-        <v>228.3068006900191</v>
+        <v>434.4977152695172</v>
       </c>
       <c r="M39" t="n">
-        <v>600.5520554459378</v>
+        <v>285.9756599623516</v>
       </c>
       <c r="N39" t="n">
         <v>308.098771518004</v>
@@ -37637,10 +37637,10 @@
         <v>653.2682656604903</v>
       </c>
       <c r="P39" t="n">
-        <v>188.6677918644944</v>
+        <v>507.1305605044316</v>
       </c>
       <c r="Q39" t="n">
-        <v>285.7732794592564</v>
+        <v>75.69599172340733</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,22 +37780,22 @@
         <v>256.0717341579488</v>
       </c>
       <c r="K41" t="n">
-        <v>181.6041859174014</v>
+        <v>505.7495984885662</v>
       </c>
       <c r="L41" t="n">
         <v>262.5705580983469</v>
       </c>
       <c r="M41" t="n">
-        <v>397.086895752312</v>
+        <v>755.0909087624775</v>
       </c>
       <c r="N41" t="n">
-        <v>334.0551615955927</v>
+        <v>354.5046254484923</v>
       </c>
       <c r="O41" t="n">
-        <v>682.7690368123195</v>
+        <v>301.9688555495742</v>
       </c>
       <c r="P41" t="n">
-        <v>544.672644269533</v>
+        <v>222.8739360980503</v>
       </c>
       <c r="Q41" t="n">
         <v>331.0246948600908</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>158.8848941499965</v>
+        <v>32.79385880958768</v>
       </c>
       <c r="K42" t="n">
-        <v>284.0610776176065</v>
+        <v>134.9941954334798</v>
       </c>
       <c r="L42" t="n">
         <v>599.1471459934783</v>
       </c>
       <c r="M42" t="n">
-        <v>285.9756599623516</v>
+        <v>355.8027454828874</v>
       </c>
       <c r="N42" t="n">
         <v>308.098771518004</v>
@@ -37877,10 +37877,10 @@
         <v>188.6677918644944</v>
       </c>
       <c r="Q42" t="n">
-        <v>75.69599172340733</v>
+        <v>285.7732794592564</v>
       </c>
       <c r="R42" t="n">
-        <v>4.746455731849565</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>158.8848941499965</v>
+        <v>32.79385880958768</v>
       </c>
       <c r="K45" t="n">
         <v>134.9941954334798</v>
@@ -38102,16 +38102,16 @@
         <v>228.3068006900191</v>
       </c>
       <c r="M45" t="n">
-        <v>285.9756599623516</v>
+        <v>462.9025808982622</v>
       </c>
       <c r="N45" t="n">
         <v>308.098771518004</v>
       </c>
       <c r="O45" t="n">
-        <v>259.4059463837608</v>
+        <v>401.4471980740462</v>
       </c>
       <c r="P45" t="n">
-        <v>381.5449291502815</v>
+        <v>188.6677918644944</v>
       </c>
       <c r="Q45" t="n">
         <v>75.69599172340733</v>
